--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.717316486858181</v>
+        <v>3.717316486858124</v>
       </c>
       <c r="C2">
-        <v>1.29686426099255</v>
+        <v>1.296864260992663</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,16 +424,16 @@
         <v>0.8502038689145195</v>
       </c>
       <c r="F2">
-        <v>2.094776827212769</v>
+        <v>2.094776827212755</v>
       </c>
       <c r="G2">
-        <v>0.635629907147333</v>
+        <v>0.6356299071473188</v>
       </c>
       <c r="H2">
-        <v>0.2651784973765672</v>
+        <v>0.2651784973765743</v>
       </c>
       <c r="I2">
-        <v>0.1000004559969625</v>
+        <v>0.1000004559969589</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.216533452159524</v>
+        <v>3.216533452159695</v>
       </c>
       <c r="C3">
-        <v>1.120680066373325</v>
+        <v>1.120680066373382</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7332332180564123</v>
+        <v>0.7332332180564691</v>
       </c>
       <c r="F3">
-        <v>1.802636135149129</v>
+        <v>1.802636135149115</v>
       </c>
       <c r="G3">
-        <v>0.564250136922773</v>
+        <v>0.5642501369227659</v>
       </c>
       <c r="H3">
-        <v>0.2523261919945128</v>
+        <v>0.2523261919945057</v>
       </c>
       <c r="I3">
-        <v>0.08826886516856902</v>
+        <v>0.08826886516859034</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.91194429721196</v>
+        <v>2.911944297211903</v>
       </c>
       <c r="C4">
-        <v>1.013862851375478</v>
+        <v>1.01386285137545</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0.2466703715349432</v>
       </c>
       <c r="I4">
-        <v>0.08171900550746258</v>
+        <v>0.08171900550747324</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788410373057786</v>
+        <v>2.788410373057673</v>
       </c>
       <c r="C5">
         <v>0.9706134854543222</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6337613025965254</v>
+        <v>0.633761302596497</v>
       </c>
       <c r="F5">
         <v>1.557790621316684</v>
@@ -544,10 +544,10 @@
         <v>0.5081206563880087</v>
       </c>
       <c r="H5">
-        <v>0.244875825447636</v>
+        <v>0.2448758254476502</v>
       </c>
       <c r="I5">
-        <v>0.07919510994976875</v>
+        <v>0.07919510994975809</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.767929396647048</v>
+        <v>2.767929396647105</v>
       </c>
       <c r="C6">
-        <v>0.9634471270012455</v>
+        <v>0.963447127001217</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6290150098038225</v>
+        <v>0.6290150098038509</v>
       </c>
       <c r="F6">
         <v>1.546197817987149</v>
@@ -582,7 +582,7 @@
         <v>0.5055562831700158</v>
       </c>
       <c r="H6">
-        <v>0.244607231096893</v>
+        <v>0.2446072310968823</v>
       </c>
       <c r="I6">
         <v>0.07878426954228246</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.910276066317806</v>
+        <v>2.910276066317749</v>
       </c>
       <c r="C7">
-        <v>1.013278521919091</v>
+        <v>1.01327852191892</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>0.6620260768039543</v>
       </c>
       <c r="F7">
-        <v>1.627002184723239</v>
+        <v>1.627002184723253</v>
       </c>
       <c r="G7">
-        <v>0.5236127585927974</v>
+        <v>0.5236127585928116</v>
       </c>
       <c r="H7">
-        <v>0.2466441688733454</v>
+        <v>0.2466441688733489</v>
       </c>
       <c r="I7">
-        <v>0.08168440314313585</v>
+        <v>0.08168440314314651</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.543957840613814</v>
+        <v>3.543957840613984</v>
       </c>
       <c r="C8">
         <v>1.235793857725582</v>
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8096369123199878</v>
+        <v>0.8096369123200162</v>
       </c>
       <c r="F8">
-        <v>1.992974069910616</v>
+        <v>1.99297406991063</v>
       </c>
       <c r="G8">
-        <v>0.6102542364685561</v>
+        <v>0.6102542364685632</v>
       </c>
       <c r="H8">
-        <v>0.2602502664723687</v>
+        <v>0.2602502664723616</v>
       </c>
       <c r="I8">
-        <v>0.0958076694502239</v>
+        <v>0.09580766945024521</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.816662853503317</v>
+        <v>4.816662853503487</v>
       </c>
       <c r="C9">
-        <v>1.686142216484996</v>
+        <v>1.686142216485166</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.109285016390132</v>
+        <v>1.10928501639016</v>
       </c>
       <c r="F9">
-        <v>2.755796025258235</v>
+        <v>2.755796025258263</v>
       </c>
       <c r="G9">
-        <v>0.8117582500858731</v>
+        <v>0.8117582500858589</v>
       </c>
       <c r="H9">
-        <v>0.3072897563855932</v>
+        <v>0.3072897563855719</v>
       </c>
       <c r="I9">
-        <v>0.1296674391208619</v>
+        <v>0.1296674391208654</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.781394243825673</v>
+        <v>5.781394243825616</v>
       </c>
       <c r="C10">
-        <v>2.030681897083639</v>
+        <v>2.030681897083468</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>1.339257206605851</v>
       </c>
       <c r="F10">
-        <v>3.356374069154612</v>
+        <v>3.356374069154583</v>
       </c>
       <c r="G10">
-        <v>0.986362514534207</v>
+        <v>0.9863625145341928</v>
       </c>
       <c r="H10">
-        <v>0.3584202370779224</v>
+        <v>0.3584202370779153</v>
       </c>
       <c r="I10">
         <v>0.1598895776121445</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.229727367962994</v>
+        <v>6.229727367963051</v>
       </c>
       <c r="C11">
-        <v>2.191761477354703</v>
+        <v>2.191761477354646</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>1.073501259925038</v>
       </c>
       <c r="H11">
-        <v>0.3863832499722761</v>
+        <v>0.386383249972269</v>
       </c>
       <c r="I11">
-        <v>0.1752317347080954</v>
+        <v>0.1752317347080989</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.401157468191457</v>
+        <v>6.401157468191684</v>
       </c>
       <c r="C12">
-        <v>2.253519369904325</v>
+        <v>2.253519369904609</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.488314449402964</v>
+        <v>1.488314449402893</v>
       </c>
       <c r="F12">
         <v>3.751737363788891</v>
       </c>
       <c r="G12">
-        <v>1.107800155058285</v>
+        <v>1.1078001550583</v>
       </c>
       <c r="H12">
         <v>0.397758323140728</v>
       </c>
       <c r="I12">
-        <v>0.1813145829438056</v>
+        <v>0.1813145829437985</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.364158098093867</v>
+        <v>6.364158098093753</v>
       </c>
       <c r="C13">
         <v>2.240182481994509</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.479386341382835</v>
+        <v>1.479386341382821</v>
       </c>
       <c r="F13">
         <v>3.727929738433033</v>
       </c>
       <c r="G13">
-        <v>1.100351996015419</v>
+        <v>1.100351996015434</v>
       </c>
       <c r="H13">
         <v>0.3952716000671188</v>
       </c>
       <c r="I13">
-        <v>0.1799916027379176</v>
+        <v>0.1799916027378856</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.243795987517387</v>
+        <v>6.243795987517274</v>
       </c>
       <c r="C14">
-        <v>2.196826239107565</v>
+        <v>2.196826239107509</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.450368538475033</v>
+        <v>1.450368538475004</v>
       </c>
       <c r="F14">
-        <v>3.650660389236037</v>
+        <v>3.650660389236066</v>
       </c>
       <c r="G14">
         <v>1.076295756194824</v>
@@ -889,7 +889,7 @@
         <v>0.3873026387489489</v>
       </c>
       <c r="I14">
-        <v>0.1757264214548968</v>
+        <v>0.1757264214548684</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.170295893262391</v>
+        <v>6.170295893262221</v>
       </c>
       <c r="C15">
-        <v>2.170372729265978</v>
+        <v>2.170372729265637</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.432668146587858</v>
+        <v>1.432668146587844</v>
       </c>
       <c r="F15">
-        <v>3.60361015630636</v>
+        <v>3.603610156306331</v>
       </c>
       <c r="G15">
-        <v>1.061736328792961</v>
+        <v>1.061736328792975</v>
       </c>
       <c r="H15">
         <v>0.3825273450095921</v>
       </c>
       <c r="I15">
-        <v>0.1731508767647973</v>
+        <v>0.1731508767647831</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.752309343945512</v>
+        <v>5.752309343945228</v>
       </c>
       <c r="C16">
         <v>2.020253533740345</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.332287702461628</v>
+        <v>1.332287702461656</v>
       </c>
       <c r="F16">
-        <v>3.338000638227527</v>
+        <v>3.338000638227555</v>
       </c>
       <c r="G16">
-        <v>0.980838729004077</v>
+        <v>0.9808387290040912</v>
       </c>
       <c r="H16">
         <v>0.3566964300500857</v>
       </c>
       <c r="I16">
-        <v>0.1589225868015944</v>
+        <v>0.1589225868016229</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.271566975899063</v>
+        <v>1.271566975899091</v>
       </c>
       <c r="F17">
         <v>3.178367020556294</v>
@@ -1003,7 +1003,7 @@
         <v>0.3421275432091093</v>
       </c>
       <c r="I17">
-        <v>0.15063115427645</v>
+        <v>0.1506311542764642</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.236927828636098</v>
+        <v>1.236927828636112</v>
       </c>
       <c r="F18">
         <v>3.08766332287388</v>
@@ -1038,10 +1038,10 @@
         <v>0.9066905420934006</v>
       </c>
       <c r="H18">
-        <v>0.3341831356111982</v>
+        <v>0.3341831356112053</v>
       </c>
       <c r="I18">
-        <v>0.1460091387950015</v>
+        <v>0.1460091387950158</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.304412886557543</v>
+        <v>5.30441288655777</v>
       </c>
       <c r="C19">
-        <v>1.859985700178242</v>
+        <v>1.85998570017864</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>1.225246011138267</v>
       </c>
       <c r="F19">
-        <v>3.057134603560883</v>
+        <v>3.057134603560911</v>
       </c>
       <c r="G19">
-        <v>0.8977935276239464</v>
+        <v>0.8977935276239748</v>
       </c>
       <c r="H19">
         <v>0.3315649746800133</v>
       </c>
       <c r="I19">
-        <v>0.1444682339426677</v>
+        <v>0.1444682339426713</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.52543486945541</v>
+        <v>5.52543486945558</v>
       </c>
       <c r="C20">
-        <v>1.938996534588227</v>
+        <v>1.938996534588568</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.278000572710496</v>
+        <v>1.278000572710539</v>
       </c>
       <c r="F20">
-        <v>3.195242841586293</v>
+        <v>3.195242841586321</v>
       </c>
       <c r="G20">
         <v>0.938297425468761</v>
@@ -1117,7 +1117,7 @@
         <v>0.3436326403812444</v>
       </c>
       <c r="I20">
-        <v>0.1514982838307866</v>
+        <v>0.1514982838307937</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.279101740218948</v>
+        <v>6.279101740218834</v>
       </c>
       <c r="C21">
-        <v>2.209539188097267</v>
+        <v>2.209539188097324</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.45887618517466</v>
+        <v>1.458876185174645</v>
       </c>
       <c r="F21">
         <v>3.673297365688541</v>
       </c>
       <c r="G21">
-        <v>1.083324649961597</v>
+        <v>1.083324649961568</v>
       </c>
       <c r="H21">
-        <v>0.3896210200833963</v>
+        <v>0.3896210200834034</v>
       </c>
       <c r="I21">
-        <v>0.1769714077550546</v>
+        <v>0.1769714077550226</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.7814907938332</v>
+        <v>6.78149079383337</v>
       </c>
       <c r="C22">
-        <v>2.390867181756278</v>
+        <v>2.390867181756107</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.580311063614445</v>
+        <v>1.580311063614417</v>
       </c>
       <c r="F22">
-        <v>3.997957972645224</v>
+        <v>3.997957972645253</v>
       </c>
       <c r="G22">
         <v>1.185806525983338</v>
       </c>
       <c r="H22">
-        <v>0.4243232688720511</v>
+        <v>0.4243232688720582</v>
       </c>
       <c r="I22">
-        <v>0.1952378068069329</v>
+        <v>0.1952378068069542</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.512347804784326</v>
+        <v>6.51234780478427</v>
       </c>
       <c r="C23">
-        <v>2.293625355571976</v>
+        <v>2.29362535557209</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.515167953730995</v>
+        <v>1.515167953731023</v>
       </c>
       <c r="F23">
-        <v>3.823439124678856</v>
+        <v>3.823439124678885</v>
       </c>
       <c r="G23">
-        <v>1.130333588540495</v>
+        <v>1.130333588540509</v>
       </c>
       <c r="H23">
-        <v>0.4053358877172641</v>
+        <v>0.4053358877172499</v>
       </c>
       <c r="I23">
-        <v>0.1853239789187775</v>
+        <v>0.1853239789187988</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.513259488943788</v>
+        <v>5.513259488943902</v>
       </c>
       <c r="C24">
         <v>1.934640244463026</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.275091109626914</v>
+        <v>1.275091109626942</v>
       </c>
       <c r="F24">
-        <v>3.187609968663622</v>
+        <v>3.187609968663651</v>
       </c>
       <c r="G24">
         <v>0.9360419418405286</v>
       </c>
       <c r="H24">
-        <v>0.342950850173743</v>
+        <v>0.3429508501737288</v>
       </c>
       <c r="I24">
-        <v>0.1511058066255089</v>
+        <v>0.1511058066255053</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.468061908245772</v>
+        <v>4.468061908245886</v>
       </c>
       <c r="C25">
-        <v>1.562324221239521</v>
+        <v>1.562324221239635</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.026789120889404</v>
+        <v>1.026789120889433</v>
       </c>
       <c r="F25">
-        <v>2.543395776887195</v>
+        <v>2.543395776887166</v>
       </c>
       <c r="G25">
-        <v>0.7531681369856713</v>
+        <v>0.7531681369856642</v>
       </c>
       <c r="H25">
-        <v>0.291988374802699</v>
+        <v>0.2919883748027132</v>
       </c>
       <c r="I25">
-        <v>0.119697841933128</v>
+        <v>0.1196978419331174</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.717316486858124</v>
+        <v>3.717316486858181</v>
       </c>
       <c r="C2">
-        <v>1.296864260992663</v>
+        <v>1.29686426099255</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,16 +424,16 @@
         <v>0.8502038689145195</v>
       </c>
       <c r="F2">
-        <v>2.094776827212755</v>
+        <v>2.094776827212769</v>
       </c>
       <c r="G2">
-        <v>0.6356299071473188</v>
+        <v>0.635629907147333</v>
       </c>
       <c r="H2">
-        <v>0.2651784973765743</v>
+        <v>0.2651784973765672</v>
       </c>
       <c r="I2">
-        <v>0.1000004559969589</v>
+        <v>0.1000004559969625</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.216533452159695</v>
+        <v>3.216533452159524</v>
       </c>
       <c r="C3">
-        <v>1.120680066373382</v>
+        <v>1.120680066373325</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7332332180564691</v>
+        <v>0.7332332180564123</v>
       </c>
       <c r="F3">
-        <v>1.802636135149115</v>
+        <v>1.802636135149129</v>
       </c>
       <c r="G3">
-        <v>0.5642501369227659</v>
+        <v>0.564250136922773</v>
       </c>
       <c r="H3">
-        <v>0.2523261919945057</v>
+        <v>0.2523261919945128</v>
       </c>
       <c r="I3">
-        <v>0.08826886516859034</v>
+        <v>0.08826886516856902</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.911944297211903</v>
+        <v>2.91194429721196</v>
       </c>
       <c r="C4">
-        <v>1.01386285137545</v>
+        <v>1.013862851375478</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0.2466703715349432</v>
       </c>
       <c r="I4">
-        <v>0.08171900550747324</v>
+        <v>0.08171900550746258</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788410373057673</v>
+        <v>2.788410373057786</v>
       </c>
       <c r="C5">
         <v>0.9706134854543222</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.633761302596497</v>
+        <v>0.6337613025965254</v>
       </c>
       <c r="F5">
         <v>1.557790621316684</v>
@@ -544,10 +544,10 @@
         <v>0.5081206563880087</v>
       </c>
       <c r="H5">
-        <v>0.2448758254476502</v>
+        <v>0.244875825447636</v>
       </c>
       <c r="I5">
-        <v>0.07919510994975809</v>
+        <v>0.07919510994976875</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.767929396647105</v>
+        <v>2.767929396647048</v>
       </c>
       <c r="C6">
-        <v>0.963447127001217</v>
+        <v>0.9634471270012455</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6290150098038509</v>
+        <v>0.6290150098038225</v>
       </c>
       <c r="F6">
         <v>1.546197817987149</v>
@@ -582,7 +582,7 @@
         <v>0.5055562831700158</v>
       </c>
       <c r="H6">
-        <v>0.2446072310968823</v>
+        <v>0.244607231096893</v>
       </c>
       <c r="I6">
         <v>0.07878426954228246</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.910276066317749</v>
+        <v>2.910276066317806</v>
       </c>
       <c r="C7">
-        <v>1.01327852191892</v>
+        <v>1.013278521919091</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>0.6620260768039543</v>
       </c>
       <c r="F7">
-        <v>1.627002184723253</v>
+        <v>1.627002184723239</v>
       </c>
       <c r="G7">
-        <v>0.5236127585928116</v>
+        <v>0.5236127585927974</v>
       </c>
       <c r="H7">
-        <v>0.2466441688733489</v>
+        <v>0.2466441688733454</v>
       </c>
       <c r="I7">
-        <v>0.08168440314314651</v>
+        <v>0.08168440314313585</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.543957840613984</v>
+        <v>3.543957840613814</v>
       </c>
       <c r="C8">
         <v>1.235793857725582</v>
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8096369123200162</v>
+        <v>0.8096369123199878</v>
       </c>
       <c r="F8">
-        <v>1.99297406991063</v>
+        <v>1.992974069910616</v>
       </c>
       <c r="G8">
-        <v>0.6102542364685632</v>
+        <v>0.6102542364685561</v>
       </c>
       <c r="H8">
-        <v>0.2602502664723616</v>
+        <v>0.2602502664723687</v>
       </c>
       <c r="I8">
-        <v>0.09580766945024521</v>
+        <v>0.0958076694502239</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.816662853503487</v>
+        <v>4.816662853503317</v>
       </c>
       <c r="C9">
-        <v>1.686142216485166</v>
+        <v>1.686142216484996</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.10928501639016</v>
+        <v>1.109285016390132</v>
       </c>
       <c r="F9">
-        <v>2.755796025258263</v>
+        <v>2.755796025258235</v>
       </c>
       <c r="G9">
-        <v>0.8117582500858589</v>
+        <v>0.8117582500858731</v>
       </c>
       <c r="H9">
-        <v>0.3072897563855719</v>
+        <v>0.3072897563855932</v>
       </c>
       <c r="I9">
-        <v>0.1296674391208654</v>
+        <v>0.1296674391208619</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.781394243825616</v>
+        <v>5.781394243825673</v>
       </c>
       <c r="C10">
-        <v>2.030681897083468</v>
+        <v>2.030681897083639</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>1.339257206605851</v>
       </c>
       <c r="F10">
-        <v>3.356374069154583</v>
+        <v>3.356374069154612</v>
       </c>
       <c r="G10">
-        <v>0.9863625145341928</v>
+        <v>0.986362514534207</v>
       </c>
       <c r="H10">
-        <v>0.3584202370779153</v>
+        <v>0.3584202370779224</v>
       </c>
       <c r="I10">
         <v>0.1598895776121445</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.229727367963051</v>
+        <v>6.229727367962994</v>
       </c>
       <c r="C11">
-        <v>2.191761477354646</v>
+        <v>2.191761477354703</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>1.073501259925038</v>
       </c>
       <c r="H11">
-        <v>0.386383249972269</v>
+        <v>0.3863832499722761</v>
       </c>
       <c r="I11">
-        <v>0.1752317347080989</v>
+        <v>0.1752317347080954</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.401157468191684</v>
+        <v>6.401157468191457</v>
       </c>
       <c r="C12">
-        <v>2.253519369904609</v>
+        <v>2.253519369904325</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.488314449402893</v>
+        <v>1.488314449402964</v>
       </c>
       <c r="F12">
         <v>3.751737363788891</v>
       </c>
       <c r="G12">
-        <v>1.1078001550583</v>
+        <v>1.107800155058285</v>
       </c>
       <c r="H12">
         <v>0.397758323140728</v>
       </c>
       <c r="I12">
-        <v>0.1813145829437985</v>
+        <v>0.1813145829438056</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.364158098093753</v>
+        <v>6.364158098093867</v>
       </c>
       <c r="C13">
         <v>2.240182481994509</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.479386341382821</v>
+        <v>1.479386341382835</v>
       </c>
       <c r="F13">
         <v>3.727929738433033</v>
       </c>
       <c r="G13">
-        <v>1.100351996015434</v>
+        <v>1.100351996015419</v>
       </c>
       <c r="H13">
         <v>0.3952716000671188</v>
       </c>
       <c r="I13">
-        <v>0.1799916027378856</v>
+        <v>0.1799916027379176</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.243795987517274</v>
+        <v>6.243795987517387</v>
       </c>
       <c r="C14">
-        <v>2.196826239107509</v>
+        <v>2.196826239107565</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.450368538475004</v>
+        <v>1.450368538475033</v>
       </c>
       <c r="F14">
-        <v>3.650660389236066</v>
+        <v>3.650660389236037</v>
       </c>
       <c r="G14">
         <v>1.076295756194824</v>
@@ -889,7 +889,7 @@
         <v>0.3873026387489489</v>
       </c>
       <c r="I14">
-        <v>0.1757264214548684</v>
+        <v>0.1757264214548968</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.170295893262221</v>
+        <v>6.170295893262391</v>
       </c>
       <c r="C15">
-        <v>2.170372729265637</v>
+        <v>2.170372729265978</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.432668146587844</v>
+        <v>1.432668146587858</v>
       </c>
       <c r="F15">
-        <v>3.603610156306331</v>
+        <v>3.60361015630636</v>
       </c>
       <c r="G15">
-        <v>1.061736328792975</v>
+        <v>1.061736328792961</v>
       </c>
       <c r="H15">
         <v>0.3825273450095921</v>
       </c>
       <c r="I15">
-        <v>0.1731508767647831</v>
+        <v>0.1731508767647973</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.752309343945228</v>
+        <v>5.752309343945512</v>
       </c>
       <c r="C16">
         <v>2.020253533740345</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.332287702461656</v>
+        <v>1.332287702461628</v>
       </c>
       <c r="F16">
-        <v>3.338000638227555</v>
+        <v>3.338000638227527</v>
       </c>
       <c r="G16">
-        <v>0.9808387290040912</v>
+        <v>0.980838729004077</v>
       </c>
       <c r="H16">
         <v>0.3566964300500857</v>
       </c>
       <c r="I16">
-        <v>0.1589225868016229</v>
+        <v>0.1589225868015944</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.271566975899091</v>
+        <v>1.271566975899063</v>
       </c>
       <c r="F17">
         <v>3.178367020556294</v>
@@ -1003,7 +1003,7 @@
         <v>0.3421275432091093</v>
       </c>
       <c r="I17">
-        <v>0.1506311542764642</v>
+        <v>0.15063115427645</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.236927828636112</v>
+        <v>1.236927828636098</v>
       </c>
       <c r="F18">
         <v>3.08766332287388</v>
@@ -1038,10 +1038,10 @@
         <v>0.9066905420934006</v>
       </c>
       <c r="H18">
-        <v>0.3341831356112053</v>
+        <v>0.3341831356111982</v>
       </c>
       <c r="I18">
-        <v>0.1460091387950158</v>
+        <v>0.1460091387950015</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.30441288655777</v>
+        <v>5.304412886557543</v>
       </c>
       <c r="C19">
-        <v>1.85998570017864</v>
+        <v>1.859985700178242</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>1.225246011138267</v>
       </c>
       <c r="F19">
-        <v>3.057134603560911</v>
+        <v>3.057134603560883</v>
       </c>
       <c r="G19">
-        <v>0.8977935276239748</v>
+        <v>0.8977935276239464</v>
       </c>
       <c r="H19">
         <v>0.3315649746800133</v>
       </c>
       <c r="I19">
-        <v>0.1444682339426713</v>
+        <v>0.1444682339426677</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.52543486945558</v>
+        <v>5.52543486945541</v>
       </c>
       <c r="C20">
-        <v>1.938996534588568</v>
+        <v>1.938996534588227</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.278000572710539</v>
+        <v>1.278000572710496</v>
       </c>
       <c r="F20">
-        <v>3.195242841586321</v>
+        <v>3.195242841586293</v>
       </c>
       <c r="G20">
         <v>0.938297425468761</v>
@@ -1117,7 +1117,7 @@
         <v>0.3436326403812444</v>
       </c>
       <c r="I20">
-        <v>0.1514982838307937</v>
+        <v>0.1514982838307866</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.279101740218834</v>
+        <v>6.279101740218948</v>
       </c>
       <c r="C21">
-        <v>2.209539188097324</v>
+        <v>2.209539188097267</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.458876185174645</v>
+        <v>1.45887618517466</v>
       </c>
       <c r="F21">
         <v>3.673297365688541</v>
       </c>
       <c r="G21">
-        <v>1.083324649961568</v>
+        <v>1.083324649961597</v>
       </c>
       <c r="H21">
-        <v>0.3896210200834034</v>
+        <v>0.3896210200833963</v>
       </c>
       <c r="I21">
-        <v>0.1769714077550226</v>
+        <v>0.1769714077550546</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.78149079383337</v>
+        <v>6.7814907938332</v>
       </c>
       <c r="C22">
-        <v>2.390867181756107</v>
+        <v>2.390867181756278</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.580311063614417</v>
+        <v>1.580311063614445</v>
       </c>
       <c r="F22">
-        <v>3.997957972645253</v>
+        <v>3.997957972645224</v>
       </c>
       <c r="G22">
         <v>1.185806525983338</v>
       </c>
       <c r="H22">
-        <v>0.4243232688720582</v>
+        <v>0.4243232688720511</v>
       </c>
       <c r="I22">
-        <v>0.1952378068069542</v>
+        <v>0.1952378068069329</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.51234780478427</v>
+        <v>6.512347804784326</v>
       </c>
       <c r="C23">
-        <v>2.29362535557209</v>
+        <v>2.293625355571976</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.515167953731023</v>
+        <v>1.515167953730995</v>
       </c>
       <c r="F23">
-        <v>3.823439124678885</v>
+        <v>3.823439124678856</v>
       </c>
       <c r="G23">
-        <v>1.130333588540509</v>
+        <v>1.130333588540495</v>
       </c>
       <c r="H23">
-        <v>0.4053358877172499</v>
+        <v>0.4053358877172641</v>
       </c>
       <c r="I23">
-        <v>0.1853239789187988</v>
+        <v>0.1853239789187775</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.513259488943902</v>
+        <v>5.513259488943788</v>
       </c>
       <c r="C24">
         <v>1.934640244463026</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.275091109626942</v>
+        <v>1.275091109626914</v>
       </c>
       <c r="F24">
-        <v>3.187609968663651</v>
+        <v>3.187609968663622</v>
       </c>
       <c r="G24">
         <v>0.9360419418405286</v>
       </c>
       <c r="H24">
-        <v>0.3429508501737288</v>
+        <v>0.342950850173743</v>
       </c>
       <c r="I24">
-        <v>0.1511058066255053</v>
+        <v>0.1511058066255089</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.468061908245886</v>
+        <v>4.468061908245772</v>
       </c>
       <c r="C25">
-        <v>1.562324221239635</v>
+        <v>1.562324221239521</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.026789120889433</v>
+        <v>1.026789120889404</v>
       </c>
       <c r="F25">
-        <v>2.543395776887166</v>
+        <v>2.543395776887195</v>
       </c>
       <c r="G25">
-        <v>0.7531681369856642</v>
+        <v>0.7531681369856713</v>
       </c>
       <c r="H25">
-        <v>0.2919883748027132</v>
+        <v>0.291988374802699</v>
       </c>
       <c r="I25">
-        <v>0.1196978419331174</v>
+        <v>0.119697841933128</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.717316486858181</v>
+        <v>3.717143698104678</v>
       </c>
       <c r="C2">
-        <v>1.29686426099255</v>
+        <v>1.296312582112023</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8502038689145195</v>
+        <v>0.8507158901684306</v>
       </c>
       <c r="F2">
-        <v>2.094776827212769</v>
+        <v>2.093885188463432</v>
       </c>
       <c r="G2">
-        <v>0.635629907147333</v>
+        <v>0.2066122860098716</v>
       </c>
       <c r="H2">
-        <v>0.2651784973765672</v>
+        <v>0.431724989391121</v>
       </c>
       <c r="I2">
-        <v>0.1000004559969625</v>
+        <v>0.2644268129627321</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0997840411156119</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.216533452159524</v>
+        <v>3.216425142846333</v>
       </c>
       <c r="C3">
-        <v>1.120680066373325</v>
+        <v>1.120221547400092</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7332332180564123</v>
+        <v>0.7336814252944777</v>
       </c>
       <c r="F3">
-        <v>1.802636135149129</v>
+        <v>1.801866127641773</v>
       </c>
       <c r="G3">
-        <v>0.564250136922773</v>
+        <v>0.179683746919892</v>
       </c>
       <c r="H3">
-        <v>0.2523261919945128</v>
+        <v>0.3875315382578322</v>
       </c>
       <c r="I3">
-        <v>0.08826886516856902</v>
+        <v>0.2516560631239564</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0880794447706954</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.91194429721196</v>
+        <v>2.911870137005735</v>
       </c>
       <c r="C4">
-        <v>1.013862851375478</v>
+        <v>1.013458735395318</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6624132735436632</v>
+        <v>0.662822190486267</v>
       </c>
       <c r="F4">
-        <v>1.627952357326762</v>
+        <v>1.6272540322162</v>
       </c>
       <c r="G4">
-        <v>0.5238275737751081</v>
+        <v>0.1642468191369488</v>
       </c>
       <c r="H4">
-        <v>0.2466703715349432</v>
+        <v>0.3626974517001784</v>
       </c>
       <c r="I4">
-        <v>0.08171900550746258</v>
+        <v>0.2460477863571846</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08154525197415197</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788410373057786</v>
+        <v>2.788348960018141</v>
       </c>
       <c r="C5">
-        <v>0.9706134854543222</v>
+        <v>0.970230949593855</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6337613025965254</v>
+        <v>0.6341541811009392</v>
       </c>
       <c r="F5">
-        <v>1.557790621316684</v>
+        <v>1.55712088388421</v>
       </c>
       <c r="G5">
-        <v>0.5081206563880087</v>
+        <v>0.1582011756177053</v>
       </c>
       <c r="H5">
-        <v>0.244875825447636</v>
+        <v>0.3530964842775717</v>
       </c>
       <c r="I5">
-        <v>0.07919510994976875</v>
+        <v>0.2442720642231961</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07902754630590181</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.767929396647048</v>
+        <v>2.767870035051601</v>
       </c>
       <c r="C6">
-        <v>0.9634471270012455</v>
+        <v>0.9630681419747305</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6290150098038225</v>
+        <v>0.6294052234604095</v>
       </c>
       <c r="F6">
-        <v>1.546197817987149</v>
+        <v>1.545532793352862</v>
       </c>
       <c r="G6">
-        <v>0.5055562831700158</v>
+        <v>0.1572112502343614</v>
       </c>
       <c r="H6">
-        <v>0.244607231096893</v>
+        <v>0.3515319692052969</v>
       </c>
       <c r="I6">
-        <v>0.07878426954228246</v>
+        <v>0.2440065646519152</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07861772288550029</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.910276066317806</v>
+        <v>2.910202082510637</v>
       </c>
       <c r="C7">
-        <v>1.013278521919091</v>
+        <v>1.012874699222294</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6620260768039543</v>
+        <v>0.6624347775582464</v>
       </c>
       <c r="F7">
-        <v>1.627002184723239</v>
+        <v>1.626304247520437</v>
       </c>
       <c r="G7">
-        <v>0.5236127585927974</v>
+        <v>0.1641643321420361</v>
       </c>
       <c r="H7">
-        <v>0.2466441688733454</v>
+        <v>0.3625659424017655</v>
       </c>
       <c r="I7">
-        <v>0.08168440314313585</v>
+        <v>0.2460218396845377</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08151073383474028</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.543957840613814</v>
+        <v>3.543808541671751</v>
       </c>
       <c r="C8">
-        <v>1.235793857725582</v>
+        <v>1.235274954038687</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8096369123199878</v>
+        <v>0.8101269533371891</v>
       </c>
       <c r="F8">
-        <v>1.992974069910616</v>
+        <v>1.992125076821878</v>
       </c>
       <c r="G8">
-        <v>0.6102542364685561</v>
+        <v>0.1970800586876962</v>
       </c>
       <c r="H8">
-        <v>0.2602502664723687</v>
+        <v>0.4159719790958221</v>
       </c>
       <c r="I8">
-        <v>0.0958076694502239</v>
+        <v>0.2595272831440738</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0956007724761534</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.816662853503317</v>
+        <v>4.816312200165783</v>
       </c>
       <c r="C9">
-        <v>1.686142216484996</v>
+        <v>1.685369459539686</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.109285016390132</v>
+        <v>1.109933619638667</v>
       </c>
       <c r="F9">
-        <v>2.755796025258235</v>
+        <v>2.754619975071364</v>
       </c>
       <c r="G9">
-        <v>0.8117582500858731</v>
+        <v>0.2718976945221101</v>
       </c>
       <c r="H9">
-        <v>0.3072897563855932</v>
+        <v>0.5419654845923532</v>
       </c>
       <c r="I9">
-        <v>0.1296674391208619</v>
+        <v>0.3063447650072604</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.129386378991633</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.781394243825673</v>
+        <v>5.780845434062883</v>
       </c>
       <c r="C10">
-        <v>2.030681897083639</v>
+        <v>2.029695489241305</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.339257206605851</v>
+        <v>1.340021382655252</v>
       </c>
       <c r="F10">
-        <v>3.356374069154612</v>
+        <v>3.35492687759529</v>
       </c>
       <c r="G10">
-        <v>0.986362514534207</v>
+        <v>0.3356147370579521</v>
       </c>
       <c r="H10">
-        <v>0.3584202370779224</v>
+        <v>0.652282906891557</v>
       </c>
       <c r="I10">
-        <v>0.1598895776121445</v>
+        <v>0.3572895391242454</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1595454898605375</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.229727367962994</v>
+        <v>6.229072527056189</v>
       </c>
       <c r="C11">
-        <v>2.191761477354703</v>
+        <v>2.190669157886532</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.446979368812208</v>
+        <v>1.447795741512664</v>
       </c>
       <c r="F11">
-        <v>3.641646596648769</v>
+        <v>3.640065820211902</v>
       </c>
       <c r="G11">
-        <v>1.073501259925038</v>
+        <v>0.3671621855518481</v>
       </c>
       <c r="H11">
-        <v>0.3863832499722761</v>
+        <v>0.7075960859978778</v>
       </c>
       <c r="I11">
-        <v>0.1752317347080954</v>
+        <v>0.3851610065501916</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1748562361212116</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.401157468191457</v>
+        <v>6.40045966529533</v>
       </c>
       <c r="C12">
-        <v>2.253519369904325</v>
+        <v>2.252385393701331</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.488314449402964</v>
+        <v>1.489150506532084</v>
       </c>
       <c r="F12">
-        <v>3.751737363788891</v>
+        <v>3.750104146908456</v>
       </c>
       <c r="G12">
-        <v>1.107800155058285</v>
+        <v>0.3795425946492372</v>
       </c>
       <c r="H12">
-        <v>0.397758323140728</v>
+        <v>0.729405946077236</v>
       </c>
       <c r="I12">
-        <v>0.1813145829438056</v>
+        <v>0.3965001703984257</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1809267013238625</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.364158098093867</v>
+        <v>6.363469682395987</v>
       </c>
       <c r="C13">
-        <v>2.240182481994509</v>
+        <v>2.239057551654128</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.479386341382835</v>
+        <v>1.480218163297863</v>
       </c>
       <c r="F13">
-        <v>3.727929738433033</v>
+        <v>3.726307905085974</v>
       </c>
       <c r="G13">
-        <v>1.100351996015419</v>
+        <v>0.3768557878041889</v>
       </c>
       <c r="H13">
-        <v>0.3952716000671188</v>
+        <v>0.7246681462062128</v>
       </c>
       <c r="I13">
-        <v>0.1799916027379176</v>
+        <v>0.3940212404568726</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1796064114856613</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.243795987517387</v>
+        <v>6.243137671833267</v>
       </c>
       <c r="C14">
-        <v>2.196826239107565</v>
+        <v>2.19573052550362</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.450368538475033</v>
+        <v>1.451186532453335</v>
       </c>
       <c r="F14">
-        <v>3.650660389236037</v>
+        <v>3.649075338173077</v>
       </c>
       <c r="G14">
-        <v>1.076295756194824</v>
+        <v>0.3681716162626572</v>
       </c>
       <c r="H14">
-        <v>0.3873026387489489</v>
+        <v>0.709372284932158</v>
       </c>
       <c r="I14">
-        <v>0.1757264214548968</v>
+        <v>0.3860774674290823</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1753499145151842</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.170295893262391</v>
+        <v>6.169655631234377</v>
       </c>
       <c r="C15">
-        <v>2.170372729265978</v>
+        <v>2.169294700017645</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.432668146587858</v>
+        <v>1.43347765895858</v>
       </c>
       <c r="F15">
-        <v>3.60361015630636</v>
+        <v>3.602047381054234</v>
       </c>
       <c r="G15">
-        <v>1.061736328792961</v>
+        <v>0.3629109661157912</v>
       </c>
       <c r="H15">
-        <v>0.3825273450095921</v>
+        <v>0.7001197363338889</v>
       </c>
       <c r="I15">
-        <v>0.1731508767647973</v>
+        <v>0.3813174328168145</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1727796224414071</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.752309343945512</v>
+        <v>5.751767101358837</v>
       </c>
       <c r="C16">
-        <v>2.020253533740345</v>
+        <v>2.019273848017235</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.332287702461628</v>
+        <v>1.333048457691206</v>
       </c>
       <c r="F16">
-        <v>3.338000638227527</v>
+        <v>3.336561939964497</v>
       </c>
       <c r="G16">
-        <v>0.980838729004077</v>
+        <v>0.33360997454227</v>
       </c>
       <c r="H16">
-        <v>0.3566964300500857</v>
+        <v>0.6487816311059618</v>
       </c>
       <c r="I16">
-        <v>0.1589225868015944</v>
+        <v>0.3555715542661844</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1585804890863294</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.498509646689683</v>
+        <v>5.498023125270493</v>
       </c>
       <c r="C17">
-        <v>1.92936342637978</v>
+        <v>1.928441645085172</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.271566975899063</v>
+        <v>1.272297707732903</v>
       </c>
       <c r="F17">
-        <v>3.178367020556294</v>
+        <v>3.177001570856589</v>
       </c>
       <c r="G17">
-        <v>0.9333133141322776</v>
+        <v>0.3163345780537838</v>
       </c>
       <c r="H17">
-        <v>0.3421275432091093</v>
+        <v>0.6186849666065655</v>
       </c>
       <c r="I17">
-        <v>0.15063115427645</v>
+        <v>0.3410528772985018</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1503061806139847</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.353402301471192</v>
+        <v>5.352946370962343</v>
       </c>
       <c r="C18">
-        <v>1.877485711997679</v>
+        <v>1.876596435834074</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.236927828636098</v>
+        <v>1.237641258415522</v>
       </c>
       <c r="F18">
-        <v>3.08766332287388</v>
+        <v>3.086339067192398</v>
       </c>
       <c r="G18">
-        <v>0.9066905420934006</v>
+        <v>0.3066349178776875</v>
       </c>
       <c r="H18">
-        <v>0.3341831356111982</v>
+        <v>0.6018483207848107</v>
       </c>
       <c r="I18">
-        <v>0.1460091387950015</v>
+        <v>0.3331366999597378</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1456937633323925</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.304412886557543</v>
+        <v>5.30396707742085</v>
       </c>
       <c r="C19">
-        <v>1.859985700178242</v>
+        <v>1.859107300375456</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.225246011138267</v>
+        <v>1.225953577641917</v>
       </c>
       <c r="F19">
-        <v>3.057134603560883</v>
+        <v>3.055824144875089</v>
       </c>
       <c r="G19">
-        <v>0.8977935276239464</v>
+        <v>0.3033895949451306</v>
       </c>
       <c r="H19">
-        <v>0.3315649746800133</v>
+        <v>0.5962256226620468</v>
       </c>
       <c r="I19">
-        <v>0.1444682339426677</v>
+        <v>0.3305279919959787</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1441560676923217</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.52543486945541</v>
+        <v>5.524942570830262</v>
       </c>
       <c r="C20">
-        <v>1.938996534588227</v>
+        <v>1.938068674018211</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.278000572710496</v>
+        <v>1.278734504200131</v>
       </c>
       <c r="F20">
-        <v>3.195242841586293</v>
+        <v>3.193869693882647</v>
       </c>
       <c r="G20">
-        <v>0.938297425468761</v>
+        <v>0.3181486339133954</v>
       </c>
       <c r="H20">
-        <v>0.3436326403812444</v>
+        <v>0.6218388812015974</v>
       </c>
       <c r="I20">
-        <v>0.1514982838307866</v>
+        <v>0.3425526982229528</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1511715138913132</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.279101740218948</v>
+        <v>6.278434664446081</v>
       </c>
       <c r="C21">
-        <v>2.209539188097267</v>
+        <v>2.208434937575021</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.45887618517466</v>
+        <v>1.459698243236261</v>
       </c>
       <c r="F21">
-        <v>3.673297365688541</v>
+        <v>3.671701564606167</v>
       </c>
       <c r="G21">
-        <v>1.083324649961597</v>
+        <v>0.3707100118566018</v>
       </c>
       <c r="H21">
-        <v>0.3896210200833963</v>
+        <v>0.7138404943275845</v>
       </c>
       <c r="I21">
-        <v>0.1769714077550546</v>
+        <v>0.3883884861354119</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1765923641380489</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.7814907938332</v>
+        <v>6.780692780133165</v>
       </c>
       <c r="C22">
-        <v>2.390867181756278</v>
+        <v>2.389638428305943</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.580311063614445</v>
+        <v>1.581190221166537</v>
       </c>
       <c r="F22">
-        <v>3.997957972645224</v>
+        <v>3.996205596653198</v>
       </c>
       <c r="G22">
-        <v>1.185806525983338</v>
+        <v>0.4076305176973847</v>
       </c>
       <c r="H22">
-        <v>0.4243232688720511</v>
+        <v>0.7790788128716741</v>
       </c>
       <c r="I22">
-        <v>0.1952378068069329</v>
+        <v>0.4229836194497381</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1948216918627068</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.512347804784326</v>
+        <v>6.511621408490782</v>
       </c>
       <c r="C23">
-        <v>2.293625355571976</v>
+        <v>2.292464010420645</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.515167953730995</v>
+        <v>1.516016693995098</v>
       </c>
       <c r="F23">
-        <v>3.823439124678856</v>
+        <v>3.821771478441747</v>
       </c>
       <c r="G23">
-        <v>1.130333588540495</v>
+        <v>0.3876657756734971</v>
       </c>
       <c r="H23">
-        <v>0.4053358877172641</v>
+        <v>0.7437450601653381</v>
       </c>
       <c r="I23">
-        <v>0.1853239789187775</v>
+        <v>0.404054172007406</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1849279527982475</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.513259488943788</v>
+        <v>5.512769806652955</v>
       </c>
       <c r="C24">
-        <v>1.934640244463026</v>
+        <v>1.933715134756596</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.275091109626914</v>
+        <v>1.275823594678769</v>
       </c>
       <c r="F24">
-        <v>3.187609968663622</v>
+        <v>3.18624030405789</v>
       </c>
       <c r="G24">
-        <v>0.9360419418405286</v>
+        <v>0.3173277808403299</v>
       </c>
       <c r="H24">
-        <v>0.342950850173743</v>
+        <v>0.6204115531884753</v>
       </c>
       <c r="I24">
-        <v>0.1511058066255089</v>
+        <v>0.3418732953716912</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1507798495442678</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.468061908245772</v>
+        <v>4.46777309448197</v>
       </c>
       <c r="C25">
-        <v>1.562324221239521</v>
+        <v>1.561624080778188</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.026789120889404</v>
+        <v>1.027394951244844</v>
       </c>
       <c r="F25">
-        <v>2.543395776887195</v>
+        <v>2.54231260843838</v>
       </c>
       <c r="G25">
-        <v>0.7531681369856713</v>
+        <v>0.2503210648947061</v>
       </c>
       <c r="H25">
-        <v>0.291988374802699</v>
+        <v>0.5051484233931802</v>
       </c>
       <c r="I25">
-        <v>0.119697841933128</v>
+        <v>0.2911067821978435</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1194380895640208</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.717143698104678</v>
+        <v>2.283335923758955</v>
       </c>
       <c r="C2">
-        <v>1.296312582112023</v>
+        <v>0.4810269719769451</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8507158901684306</v>
+        <v>0.04335001953845463</v>
       </c>
       <c r="F2">
-        <v>2.093885188463432</v>
+        <v>6.947053611204353</v>
       </c>
       <c r="G2">
-        <v>0.2066122860098716</v>
+        <v>0.0008410494735830631</v>
       </c>
       <c r="H2">
-        <v>0.431724989391121</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2644268129627321</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0997840411156119</v>
+        <v>0.7551368046809017</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6068288306944964</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0007681044312750629</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.216425142846333</v>
+        <v>2.003385116182301</v>
       </c>
       <c r="C3">
-        <v>1.120221547400092</v>
+        <v>0.4118926989141585</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7336814252944777</v>
+        <v>0.03763160787387321</v>
       </c>
       <c r="F3">
-        <v>1.801866127641773</v>
+        <v>6.231591539721194</v>
       </c>
       <c r="G3">
-        <v>0.179683746919892</v>
+        <v>0.0008524646576296993</v>
       </c>
       <c r="H3">
-        <v>0.3875315382578322</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2516560631239564</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0880794447706954</v>
+        <v>0.6796183233294784</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5272855125176434</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0009833884280556759</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.911870137005735</v>
+        <v>1.837690288302866</v>
       </c>
       <c r="C4">
-        <v>1.013458735395318</v>
+        <v>0.3704607505911213</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.662822190486267</v>
+        <v>0.03421996906820368</v>
       </c>
       <c r="F4">
-        <v>1.6272540322162</v>
+        <v>5.803008442801257</v>
       </c>
       <c r="G4">
-        <v>0.1642468191369488</v>
+        <v>0.0008596198514194156</v>
       </c>
       <c r="H4">
-        <v>0.3626974517001784</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2460477863571846</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08154525197415197</v>
+        <v>0.6342434252442217</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.480010361885796</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.001455149994351146</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788348960018141</v>
+        <v>1.771546640373941</v>
       </c>
       <c r="C5">
-        <v>0.970230949593855</v>
+        <v>0.3537925806449778</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6341541811009392</v>
+        <v>0.03285111918794748</v>
       </c>
       <c r="F5">
-        <v>1.55712088388421</v>
+        <v>5.630667512296128</v>
       </c>
       <c r="G5">
-        <v>0.1582011756177053</v>
+        <v>0.0008625757050644495</v>
       </c>
       <c r="H5">
-        <v>0.3530964842775717</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2442720642231961</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07902754630590181</v>
+        <v>0.615959784866476</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.461089508510625</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.001725356346783613</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.767870035051601</v>
+        <v>1.760641896644586</v>
       </c>
       <c r="C6">
-        <v>0.9630681419747305</v>
+        <v>0.3510367826358731</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6294052234604095</v>
+        <v>0.03262501817247987</v>
       </c>
       <c r="F6">
-        <v>1.545532793352862</v>
+        <v>5.602179478774701</v>
       </c>
       <c r="G6">
-        <v>0.1572112502343614</v>
+        <v>0.0008630690312181378</v>
       </c>
       <c r="H6">
-        <v>0.3515319692052969</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2440065646519152</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07861772288550029</v>
+        <v>0.6129351311315219</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4579671594302255</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.001774731614592184</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.910202082510637</v>
+        <v>1.836792894571971</v>
       </c>
       <c r="C7">
-        <v>1.012874699222294</v>
+        <v>0.3702351342473094</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6624347775582464</v>
+        <v>0.03420142603795995</v>
       </c>
       <c r="F7">
-        <v>1.626304247520437</v>
+        <v>5.800675317788972</v>
       </c>
       <c r="G7">
-        <v>0.1641643321420361</v>
+        <v>0.0008596595489308406</v>
       </c>
       <c r="H7">
-        <v>0.3625659424017655</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2460218396845377</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08151073383474028</v>
+        <v>0.6339960610551714</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4797538565027537</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.001458487623481552</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.543808541671751</v>
+        <v>2.185408287363714</v>
       </c>
       <c r="C8">
-        <v>1.235274954038687</v>
+        <v>0.4569529398123393</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8101269533371891</v>
+        <v>0.04135537652971522</v>
       </c>
       <c r="F8">
-        <v>1.992125076821878</v>
+        <v>6.697894618149292</v>
       </c>
       <c r="G8">
-        <v>0.1970800586876962</v>
+        <v>0.0008449571664202943</v>
       </c>
       <c r="H8">
-        <v>0.4159719790958221</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2595272831440738</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0956007724761534</v>
+        <v>0.7288645106159635</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5790460784273321</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0007670969546964557</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.816312200165783</v>
+        <v>2.927524158078938</v>
       </c>
       <c r="C9">
-        <v>1.685369459539686</v>
+        <v>0.6371485123834475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.109933619638667</v>
+        <v>0.05635859942447752</v>
       </c>
       <c r="F9">
-        <v>2.754619975071364</v>
+        <v>8.562115619883457</v>
       </c>
       <c r="G9">
-        <v>0.2718976945221101</v>
+        <v>0.0008171173579931874</v>
       </c>
       <c r="H9">
-        <v>0.5419654845923532</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3063447650072604</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.129386378991633</v>
+        <v>0.9249941245481494</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7887310353693664</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.002494733792360648</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.780845434062883</v>
+        <v>3.523674652045258</v>
       </c>
       <c r="C10">
-        <v>2.029695489241305</v>
+        <v>0.7791229905222963</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.340021382655252</v>
+        <v>0.06827580153896307</v>
       </c>
       <c r="F10">
-        <v>3.35492687759529</v>
+        <v>10.0277675307529</v>
       </c>
       <c r="G10">
-        <v>0.3356147370579521</v>
+        <v>0.0007969943070331043</v>
       </c>
       <c r="H10">
-        <v>0.652282906891557</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3572895391242454</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1595454898605375</v>
+        <v>1.078832560668587</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9561049864665137</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.006289664433182907</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.229072527056189</v>
+        <v>3.810151747381099</v>
       </c>
       <c r="C11">
-        <v>2.190669157886532</v>
+        <v>0.8467334086464291</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.447795741512664</v>
+        <v>0.07397356361510532</v>
       </c>
       <c r="F11">
-        <v>3.640065820211902</v>
+        <v>10.72416085704265</v>
       </c>
       <c r="G11">
-        <v>0.3671621855518481</v>
+        <v>0.0007878370333014909</v>
       </c>
       <c r="H11">
-        <v>0.7075960859978778</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3851610065501916</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1748562361212116</v>
+        <v>1.151915212531577</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.036297539960316</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.008746642575594876</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.40045966529533</v>
+        <v>3.921264594974161</v>
       </c>
       <c r="C12">
-        <v>2.252385393701331</v>
+        <v>0.8728677285912454</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.489150506532084</v>
+        <v>0.07617930671411344</v>
       </c>
       <c r="F12">
-        <v>3.750104146908456</v>
+        <v>10.99302681022982</v>
       </c>
       <c r="G12">
-        <v>0.3795425946492372</v>
+        <v>0.0007843613612160902</v>
       </c>
       <c r="H12">
-        <v>0.729405946077236</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3965001703984257</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1809267013238625</v>
+        <v>1.180135837208127</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.067366304594117</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.009801196871211282</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.363469682395987</v>
+        <v>3.897209696624316</v>
       </c>
       <c r="C13">
-        <v>2.239057551654128</v>
+        <v>0.8672138445438691</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.480218163297863</v>
+        <v>0.07570197029312453</v>
       </c>
       <c r="F13">
-        <v>3.726307905085974</v>
+        <v>10.93487637876405</v>
       </c>
       <c r="G13">
-        <v>0.3768557878041889</v>
+        <v>0.000785110401302426</v>
       </c>
       <c r="H13">
-        <v>0.7246681462062128</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3940212404568726</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1796064114856613</v>
+        <v>1.17403195314472</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.060641749153476</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.009568211804722004</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.243137671833267</v>
+        <v>3.8192375831552</v>
       </c>
       <c r="C14">
-        <v>2.19573052550362</v>
+        <v>0.8488722176932129</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.451186532453335</v>
+        <v>0.07415401354167273</v>
       </c>
       <c r="F14">
-        <v>3.649075338173077</v>
+        <v>10.74617157185162</v>
       </c>
       <c r="G14">
-        <v>0.3681716162626572</v>
+        <v>0.0007875512963121583</v>
       </c>
       <c r="H14">
-        <v>0.709372284932158</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3860774674290823</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1753499145151842</v>
+        <v>1.154225362586203</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.038838763379459</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.008830789917689152</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.169655631234377</v>
+        <v>3.771834174433707</v>
       </c>
       <c r="C15">
-        <v>2.169294700017645</v>
+        <v>0.8377098741740383</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.43347765895858</v>
+        <v>0.07321238681476672</v>
       </c>
       <c r="F15">
-        <v>3.602047381054234</v>
+        <v>10.63128527128356</v>
       </c>
       <c r="G15">
-        <v>0.3629109661157912</v>
+        <v>0.0007890451241560599</v>
       </c>
       <c r="H15">
-        <v>0.7001197363338889</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3813174328168145</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1727796224414071</v>
+        <v>1.142167615760968</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.025579083237545</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.008395898552320702</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.751767101358837</v>
+        <v>3.505295407354538</v>
       </c>
       <c r="C16">
-        <v>2.019273848017235</v>
+        <v>0.7747732240777054</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.333048457691206</v>
+        <v>0.06790968477328718</v>
       </c>
       <c r="F16">
-        <v>3.336561939964497</v>
+        <v>9.982926059381299</v>
       </c>
       <c r="G16">
-        <v>0.33360997454227</v>
+        <v>0.000797592077272816</v>
       </c>
       <c r="H16">
-        <v>0.6487816311059618</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3555715542661844</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1585804890863294</v>
+        <v>1.074126967339708</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.950955426273822</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.006145343281744431</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.498023125270493</v>
+        <v>3.34598044237822</v>
       </c>
       <c r="C17">
-        <v>1.928441645085172</v>
+        <v>0.7370017761138854</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.272297707732903</v>
+        <v>0.06473296977532073</v>
       </c>
       <c r="F17">
-        <v>3.177001570856589</v>
+        <v>9.593361313819486</v>
       </c>
       <c r="G17">
-        <v>0.3163345780537838</v>
+        <v>0.0008028295784040206</v>
       </c>
       <c r="H17">
-        <v>0.6186849666065655</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3410528772985018</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1503061806139847</v>
+        <v>1.033246016265906</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9062921089092271</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.004964260357708028</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.352946370962343</v>
+        <v>3.255755301902468</v>
       </c>
       <c r="C18">
-        <v>1.876596435834074</v>
+        <v>0.7155546731370066</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.237641258415522</v>
+        <v>0.06293125965072477</v>
       </c>
       <c r="F18">
-        <v>3.086339067192398</v>
+        <v>9.372023982451537</v>
       </c>
       <c r="G18">
-        <v>0.3066349178776875</v>
+        <v>0.0008058422735041169</v>
       </c>
       <c r="H18">
-        <v>0.6018483207848107</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3331366999597378</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1456937633323925</v>
+        <v>1.010017301084844</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.880976193597462</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.004352363150420757</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.30396707742085</v>
+        <v>3.225436656947977</v>
       </c>
       <c r="C19">
-        <v>1.859107300375456</v>
+        <v>0.7083381482767379</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.225953577641917</v>
+        <v>0.06232537235123559</v>
       </c>
       <c r="F19">
-        <v>3.055824144875089</v>
+        <v>9.297527212162123</v>
       </c>
       <c r="G19">
-        <v>0.3033895949451306</v>
+        <v>0.0008068625668424031</v>
       </c>
       <c r="H19">
-        <v>0.5962256226620468</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3305279919959787</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1441560676923217</v>
+        <v>1.002198635242934</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8724654982283226</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.004156245155799709</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.524942570830262</v>
+        <v>3.36279112979372</v>
       </c>
       <c r="C20">
-        <v>1.938068674018211</v>
+        <v>0.740993192962776</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.278734504200131</v>
+        <v>0.06506844653573296</v>
       </c>
       <c r="F20">
-        <v>3.193869693882647</v>
+        <v>9.634542646744819</v>
       </c>
       <c r="G20">
-        <v>0.3181486339133954</v>
+        <v>0.000802272064899008</v>
       </c>
       <c r="H20">
-        <v>0.6218388812015974</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3425526982229528</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1511715138913132</v>
+        <v>1.037567707703175</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9110071760010214</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.005082883611555289</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.278434664446081</v>
+        <v>3.842064642391961</v>
       </c>
       <c r="C21">
-        <v>2.208434937575021</v>
+        <v>0.854244303526059</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.459698243236261</v>
+        <v>0.07460730556320172</v>
       </c>
       <c r="F21">
-        <v>3.671701564606167</v>
+        <v>10.80145086273211</v>
       </c>
       <c r="G21">
-        <v>0.3707100118566018</v>
+        <v>0.0007868346309288831</v>
       </c>
       <c r="H21">
-        <v>0.7138404943275845</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3883884861354119</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1765923641380489</v>
+        <v>1.160027336116457</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.045222727897212</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.009043847576013064</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.780692780133165</v>
+        <v>4.170893015438367</v>
       </c>
       <c r="C22">
-        <v>2.389638428305943</v>
+        <v>0.9314190913301843</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.581190221166537</v>
+        <v>0.08112708223306697</v>
       </c>
       <c r="F22">
-        <v>3.996205596653198</v>
+        <v>11.5946922217351</v>
       </c>
       <c r="G22">
-        <v>0.4076305176973847</v>
+        <v>0.0007766940929514053</v>
       </c>
       <c r="H22">
-        <v>0.7790788128716741</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4229836194497381</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1948216918627068</v>
+        <v>1.24330391790204</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.137102480061031</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.01236809863361721</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.511621408490782</v>
+        <v>3.993798580675843</v>
       </c>
       <c r="C23">
-        <v>2.292464010420645</v>
+        <v>0.8899033549294018</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.516016693995098</v>
+        <v>0.07761803794609179</v>
       </c>
       <c r="F23">
-        <v>3.821771478441747</v>
+        <v>11.1681847456947</v>
       </c>
       <c r="G23">
-        <v>0.3876657756734971</v>
+        <v>0.0007821138608592906</v>
       </c>
       <c r="H23">
-        <v>0.7437450601653381</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.404054172007406</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1849279527982475</v>
+        <v>1.198522866767888</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.087638194589033</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01051919980002314</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.512769806652955</v>
+        <v>3.355186791123458</v>
       </c>
       <c r="C24">
-        <v>1.933715134756596</v>
+        <v>0.7391878450297327</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.275823594678769</v>
+        <v>0.06491670139604722</v>
       </c>
       <c r="F24">
-        <v>3.18624030405789</v>
+        <v>9.615916443613429</v>
       </c>
       <c r="G24">
-        <v>0.3173277808403299</v>
+        <v>0.0008025241113237918</v>
       </c>
       <c r="H24">
-        <v>0.6204115531884753</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3418732953716912</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1507798495442678</v>
+        <v>1.035613023923844</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9088743764463914</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.005029046352941435</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.46777309448197</v>
+        <v>2.719068442397315</v>
       </c>
       <c r="C25">
-        <v>1.561624080778188</v>
+        <v>0.5869959581024489</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.027394951244844</v>
+        <v>0.05216720664272145</v>
       </c>
       <c r="F25">
-        <v>2.54231260843838</v>
+        <v>8.04354805980995</v>
       </c>
       <c r="G25">
-        <v>0.2503210648947061</v>
+        <v>0.0008245684388340037</v>
       </c>
       <c r="H25">
-        <v>0.5051484233931802</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2911067821978435</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1194380895640208</v>
+        <v>0.8705171494279682</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7300094703356166</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.001637181881588567</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.283335923758955</v>
+        <v>4.271286433844239</v>
       </c>
       <c r="C2">
-        <v>0.4810269719769451</v>
+        <v>0.8833546974524893</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04335001953845463</v>
+        <v>0.04645864033884628</v>
       </c>
       <c r="F2">
-        <v>6.947053611204353</v>
+        <v>2.61922634853417</v>
       </c>
       <c r="G2">
-        <v>0.0008410494735830631</v>
+        <v>0.0008227525702108339</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7551368046809017</v>
+        <v>0.1065752072568245</v>
       </c>
       <c r="K2">
-        <v>0.6068288306944964</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0007681044312750629</v>
+        <v>0.09442898763369811</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5957890442390337</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.718472353694139</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.003385116182301</v>
+        <v>3.742690008332204</v>
       </c>
       <c r="C3">
-        <v>0.4118926989141585</v>
+        <v>0.7582574929144528</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03763160787387321</v>
+        <v>0.04082743858647397</v>
       </c>
       <c r="F3">
-        <v>6.231591539721194</v>
+        <v>2.435454480088296</v>
       </c>
       <c r="G3">
-        <v>0.0008524646576296993</v>
+        <v>0.0008332240231686997</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6796183233294784</v>
+        <v>0.1088371590976109</v>
       </c>
       <c r="K3">
-        <v>0.5272855125176434</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0009833884280556759</v>
+        <v>0.08737617555740229</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.525869197464587</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.74402327741825</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.837690288302866</v>
+        <v>3.425795160043208</v>
       </c>
       <c r="C4">
-        <v>0.3704607505911213</v>
+        <v>0.6830822586282181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03421996906820368</v>
+        <v>0.03746118031117618</v>
       </c>
       <c r="F4">
-        <v>5.803008442801257</v>
+        <v>2.327617587208039</v>
       </c>
       <c r="G4">
-        <v>0.0008596198514194156</v>
+        <v>0.0008398115998296604</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6342434252442217</v>
+        <v>0.1103967976774065</v>
       </c>
       <c r="K4">
-        <v>0.480010361885796</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001455149994351146</v>
+        <v>0.08314522904643695</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4839333175043947</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.761981234588959</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.771546640373941</v>
+        <v>3.298352003836158</v>
       </c>
       <c r="C5">
-        <v>0.3537925806449778</v>
+        <v>0.6527969617243627</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03285111918794748</v>
+        <v>0.03610808762220152</v>
       </c>
       <c r="F5">
-        <v>5.630667512296128</v>
+        <v>2.284817801231881</v>
       </c>
       <c r="G5">
-        <v>0.0008625757050644495</v>
+        <v>0.0008425382505562462</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.615959784866476</v>
+        <v>0.1110723284060562</v>
       </c>
       <c r="K5">
-        <v>0.461089508510625</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001725356346783613</v>
+        <v>0.08144455304224607</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4670660357373819</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.769835967234698</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.760641896644586</v>
+        <v>3.277286065348562</v>
       </c>
       <c r="C6">
-        <v>0.3510367826358731</v>
+        <v>0.6477875067442085</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03262501817247987</v>
+        <v>0.03588441974307877</v>
       </c>
       <c r="F6">
-        <v>5.602179478774701</v>
+        <v>2.277776960035425</v>
       </c>
       <c r="G6">
-        <v>0.0008630690312181378</v>
+        <v>0.0008429936219006352</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6129351311315219</v>
+        <v>0.1111868326984187</v>
       </c>
       <c r="K6">
-        <v>0.4579671594302255</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001774731614592184</v>
+        <v>0.08116353181087987</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4642778612559297</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.771171722533722</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.836792894571971</v>
+        <v>3.424069850711078</v>
       </c>
       <c r="C7">
-        <v>0.3702351342473094</v>
+        <v>0.6826724840016141</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03420142603795995</v>
+        <v>0.03744286169573208</v>
       </c>
       <c r="F7">
-        <v>5.800675317788972</v>
+        <v>2.327035881284758</v>
       </c>
       <c r="G7">
-        <v>0.0008596595489308406</v>
+        <v>0.000839848198652879</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6339960610551714</v>
+        <v>0.1104057500002256</v>
       </c>
       <c r="K7">
-        <v>0.4797538565027537</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.001458487623481552</v>
+        <v>0.08312220006033044</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4837049764132928</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.762085035698917</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.185408287363714</v>
+        <v>4.087287693371195</v>
       </c>
       <c r="C8">
-        <v>0.4569529398123393</v>
+        <v>0.8398426020928866</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04135537652971522</v>
+        <v>0.04449531992192313</v>
       </c>
       <c r="F8">
-        <v>6.697894618149292</v>
+        <v>2.554752993518719</v>
       </c>
       <c r="G8">
-        <v>0.0008449571664202943</v>
+        <v>0.0008263318444454013</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7288645106159635</v>
+        <v>0.107317776968344</v>
       </c>
       <c r="K8">
-        <v>0.5790460784273321</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0007670969546964557</v>
+        <v>0.0919755426621407</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5714562283909146</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.726789769754845</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.927524158078938</v>
+        <v>5.46054658291979</v>
       </c>
       <c r="C9">
-        <v>0.6371485123834475</v>
+        <v>1.164187507446286</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05635859942447752</v>
+        <v>0.05927133491745451</v>
       </c>
       <c r="F9">
-        <v>8.562115619883457</v>
+        <v>3.046670794771444</v>
       </c>
       <c r="G9">
-        <v>0.0008171173579931874</v>
+        <v>0.0008009585345875115</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9249941245481494</v>
+        <v>0.1027720997681847</v>
       </c>
       <c r="K9">
-        <v>0.7887310353693664</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.002494733792360648</v>
+        <v>0.110205554364498</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7528692419040794</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.677304404155336</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.523674652045258</v>
+        <v>6.532734876667689</v>
       </c>
       <c r="C10">
-        <v>0.7791229905222963</v>
+        <v>1.417399709641018</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06827580153896307</v>
+        <v>0.07106611463743207</v>
       </c>
       <c r="F10">
-        <v>10.0277675307529</v>
+        <v>3.444774722894294</v>
       </c>
       <c r="G10">
-        <v>0.0007969943070331043</v>
+        <v>0.0007828135397660533</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.078832560668587</v>
+        <v>0.1006063562113404</v>
       </c>
       <c r="K10">
-        <v>0.9561049864665137</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.006289664433182907</v>
+        <v>0.1242543719841223</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.8941295135839127</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.655713974644001</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.810151747381099</v>
+        <v>7.039266118181501</v>
       </c>
       <c r="C11">
-        <v>0.8467334086464291</v>
+        <v>1.53719424860742</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07397356361510532</v>
+        <v>0.07673529910921317</v>
       </c>
       <c r="F11">
-        <v>10.72416085704265</v>
+        <v>3.636234274621415</v>
       </c>
       <c r="G11">
-        <v>0.0007878370333014909</v>
+        <v>0.0007746157446875195</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.151915212531577</v>
+        <v>0.09994624765623428</v>
       </c>
       <c r="K11">
-        <v>1.036297539960316</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.008746642575594876</v>
+        <v>0.1308206361980737</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.9607287181344475</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.649828779527354</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.921264594974161</v>
+        <v>7.234275747745357</v>
       </c>
       <c r="C12">
-        <v>0.8728677285912454</v>
+        <v>1.583356050672421</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07617930671411344</v>
+        <v>0.07893592346797007</v>
       </c>
       <c r="F12">
-        <v>10.99302681022982</v>
+        <v>3.710459775576169</v>
       </c>
       <c r="G12">
-        <v>0.0007843613612160902</v>
+        <v>0.000771514544832688</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.180135837208127</v>
+        <v>0.09975027202325393</v>
       </c>
       <c r="K12">
-        <v>1.067366304594117</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.009801196871211282</v>
+        <v>0.1333355007115955</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.9863439969853403</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.648239238914044</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.897209696624316</v>
+        <v>7.192125993228558</v>
       </c>
       <c r="C13">
-        <v>0.8672138445438691</v>
+        <v>1.573376374113593</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07570197029312453</v>
+        <v>0.07845940362613746</v>
       </c>
       <c r="F13">
-        <v>10.93487637876405</v>
+        <v>3.694393195251791</v>
       </c>
       <c r="G13">
-        <v>0.000785110401302426</v>
+        <v>0.0007721823926496119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.17403195314472</v>
+        <v>0.09978994746199987</v>
       </c>
       <c r="K13">
-        <v>1.060641749153476</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.009568211804722004</v>
+        <v>0.1327925632896054</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.9808086512109924</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.648551863250219</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.8192375831552</v>
+        <v>7.055242479762285</v>
       </c>
       <c r="C14">
-        <v>0.8488722176932129</v>
+        <v>1.540975152183648</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07415401354167273</v>
+        <v>0.07691520213509406</v>
       </c>
       <c r="F14">
-        <v>10.74617157185162</v>
+        <v>3.642304830967646</v>
       </c>
       <c r="G14">
-        <v>0.0007875512963121583</v>
+        <v>0.0007743605758279809</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.154225362586203</v>
+        <v>0.09992899616426243</v>
       </c>
       <c r="K14">
-        <v>1.038838763379459</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.008830789917689152</v>
+        <v>0.1310269475705965</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.962827801884572</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.649684739254397</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.771834174433707</v>
+        <v>6.971829798403519</v>
       </c>
       <c r="C15">
-        <v>0.8377098741740383</v>
+        <v>1.521236831252793</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07321238681476672</v>
+        <v>0.07597667732661506</v>
       </c>
       <c r="F15">
-        <v>10.63128527128356</v>
+        <v>3.610631272468225</v>
       </c>
       <c r="G15">
-        <v>0.0007890451241560599</v>
+        <v>0.0007756950217988181</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.142167615760968</v>
+        <v>0.1000214370905219</v>
       </c>
       <c r="K15">
-        <v>1.025579083237545</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.008395898552320702</v>
+        <v>0.1299492515645255</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9518674460951715</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.650464248762333</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.505295407354538</v>
+        <v>6.500050552460777</v>
       </c>
       <c r="C16">
-        <v>0.7747732240777054</v>
+        <v>1.409674664076761</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06790968477328718</v>
+        <v>0.07070255814802451</v>
       </c>
       <c r="F16">
-        <v>9.982926059381299</v>
+        <v>3.432490082721245</v>
       </c>
       <c r="G16">
-        <v>0.000797592077272816</v>
+        <v>0.0007833500115652093</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.074126967339708</v>
+        <v>0.1006566270986369</v>
       </c>
       <c r="K16">
-        <v>0.950955426273822</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.006145343281744431</v>
+        <v>0.123829039046413</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.8898290302247602</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.656183778196379</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.34598044237822</v>
+        <v>6.215770320299214</v>
       </c>
       <c r="C17">
-        <v>0.7370017761138854</v>
+        <v>1.342504688763086</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06473296977532073</v>
+        <v>0.06755150851169489</v>
       </c>
       <c r="F17">
-        <v>9.593361313819486</v>
+        <v>3.326015519697762</v>
       </c>
       <c r="G17">
-        <v>0.0008028295784040206</v>
+        <v>0.000788057241942506</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.033246016265906</v>
+        <v>0.1011343123857635</v>
       </c>
       <c r="K17">
-        <v>0.9062921089092271</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.004964260357708028</v>
+        <v>0.1201215080528968</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8524089946019444</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.660749168858715</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.255755301902468</v>
+        <v>6.053994401112675</v>
       </c>
       <c r="C18">
-        <v>0.7155546731370066</v>
+        <v>1.304294624028955</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06293125965072477</v>
+        <v>0.06576698686197702</v>
       </c>
       <c r="F18">
-        <v>9.372023982451537</v>
+        <v>3.265733387493896</v>
       </c>
       <c r="G18">
-        <v>0.0008058422735041169</v>
+        <v>0.0007907703699831998</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.010017301084844</v>
+        <v>0.1014391602159996</v>
       </c>
       <c r="K18">
-        <v>0.880976193597462</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.004352363150420757</v>
+        <v>0.118005330318752</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.831102126165348</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.663740586228997</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.225436656947977</v>
+        <v>5.999503886228013</v>
       </c>
       <c r="C19">
-        <v>0.7083381482767379</v>
+        <v>1.291426446757953</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06232537235123559</v>
+        <v>0.06516728610818134</v>
       </c>
       <c r="F19">
-        <v>9.297527212162123</v>
+        <v>3.245481066583608</v>
       </c>
       <c r="G19">
-        <v>0.0008068625668424031</v>
+        <v>0.0007916900993105223</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.002198635242934</v>
+        <v>0.1015473457151295</v>
       </c>
       <c r="K19">
-        <v>0.8724654982283226</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.004156245155799709</v>
+        <v>0.1172915390485016</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8239234480101629</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.664814166094203</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.36279112979372</v>
+        <v>6.245849569530947</v>
       </c>
       <c r="C20">
-        <v>0.740993192962776</v>
+        <v>1.349610217515306</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06506844653573296</v>
+        <v>0.06788398995500344</v>
       </c>
       <c r="F20">
-        <v>9.634542646744819</v>
+        <v>3.337249058291945</v>
       </c>
       <c r="G20">
-        <v>0.000802272064899008</v>
+        <v>0.000787555597938427</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.037567707703175</v>
+        <v>0.1010802988652273</v>
       </c>
       <c r="K20">
-        <v>0.9110071760010214</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.005082883611555289</v>
+        <v>0.1205144731127916</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.8563696502635807</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.660224852159232</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.842064642391961</v>
+        <v>7.095357370917611</v>
       </c>
       <c r="C21">
-        <v>0.854244303526059</v>
+        <v>1.550469318778369</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07460730556320172</v>
+        <v>0.07736722038826827</v>
       </c>
       <c r="F21">
-        <v>10.80145086273211</v>
+        <v>3.657555613304652</v>
       </c>
       <c r="G21">
-        <v>0.0007868346309288831</v>
+        <v>0.0007737207494386796</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.160027336116457</v>
+        <v>0.09988662431909034</v>
       </c>
       <c r="K21">
-        <v>1.045222727897212</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.009043847576013064</v>
+        <v>0.1315447546563036</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9680979587015912</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.649334001912621</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.170893015438367</v>
+        <v>7.669485927880032</v>
       </c>
       <c r="C22">
-        <v>0.9314190913301843</v>
+        <v>1.686475236055401</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08112708223306697</v>
+        <v>0.08388496006752177</v>
       </c>
       <c r="F22">
-        <v>11.5946922217351</v>
+        <v>3.877078998779638</v>
       </c>
       <c r="G22">
-        <v>0.0007766940929514053</v>
+        <v>0.0007646941880427477</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.24330391790204</v>
+        <v>0.09942560889842156</v>
       </c>
       <c r="K22">
-        <v>1.137102480061031</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.01236809863361721</v>
+        <v>0.1389208018282488</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.043459254405448</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.645983960537762</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.993798580675843</v>
+        <v>7.361145778673517</v>
       </c>
       <c r="C23">
-        <v>0.8899033549294018</v>
+        <v>1.613402245791008</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07761803794609179</v>
+        <v>0.08037318024747009</v>
       </c>
       <c r="F23">
-        <v>11.1681847456947</v>
+        <v>3.758896168182531</v>
       </c>
       <c r="G23">
-        <v>0.0007821138608592906</v>
+        <v>0.0007695122954100732</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.198522866767888</v>
+        <v>0.0996396968614448</v>
       </c>
       <c r="K23">
-        <v>1.087638194589033</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01051919980002314</v>
+        <v>0.1349676145200718</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.003001297073403</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.647399869113855</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.355186791123458</v>
+        <v>6.23224560503246</v>
       </c>
       <c r="C24">
-        <v>0.7391878450297327</v>
+        <v>1.346396550662973</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06491670139604722</v>
+        <v>0.06773359155323178</v>
       </c>
       <c r="F24">
-        <v>9.615916443613429</v>
+        <v>3.332167491264443</v>
       </c>
       <c r="G24">
-        <v>0.0008025241113237918</v>
+        <v>0.0007877823693150972</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.035613023923844</v>
+        <v>0.1011046247792251</v>
       </c>
       <c r="K24">
-        <v>0.9088743764463914</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.005029046352941435</v>
+        <v>0.1203367660867087</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8545783992750913</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.660460758885549</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.719068442397315</v>
+        <v>5.079456236347312</v>
       </c>
       <c r="C25">
-        <v>0.5869959581024489</v>
+        <v>1.074234079460496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05216720664272145</v>
+        <v>0.05513872388596397</v>
       </c>
       <c r="F25">
-        <v>8.04354805980995</v>
+        <v>2.90787391640049</v>
       </c>
       <c r="G25">
-        <v>0.0008245684388340037</v>
+        <v>0.0008077199708240052</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8705171494279682</v>
+        <v>0.1038164495670912</v>
       </c>
       <c r="K25">
-        <v>0.7300094703356166</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.001637181881588567</v>
+        <v>0.1051687986837138</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7025746939114725</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.688318871510987</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.271286433844239</v>
+        <v>3.358839897227597</v>
       </c>
       <c r="C2">
-        <v>0.8833546974524893</v>
+        <v>0.298285615648922</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04645864033884628</v>
+        <v>0.05035469001898107</v>
       </c>
       <c r="F2">
-        <v>2.61922634853417</v>
+        <v>3.706044695401189</v>
       </c>
       <c r="G2">
-        <v>0.0008227525702108339</v>
+        <v>0.002611361463643396</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1065752072568245</v>
+        <v>0.2062711819693774</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09442898763369811</v>
+        <v>0.239546571594353</v>
       </c>
       <c r="M2">
-        <v>0.5957890442390337</v>
+        <v>0.5867500080686696</v>
       </c>
       <c r="N2">
-        <v>1.718472353694139</v>
+        <v>2.912624198134026</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.742690008332204</v>
+        <v>3.24715315543159</v>
       </c>
       <c r="C3">
-        <v>0.7582574929144528</v>
+        <v>0.2659263982062612</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04082743858647397</v>
+        <v>0.04856748507910957</v>
       </c>
       <c r="F3">
-        <v>2.435454480088296</v>
+        <v>3.67981311465897</v>
       </c>
       <c r="G3">
-        <v>0.0008332240231686997</v>
+        <v>0.002617772876892005</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1088371590976109</v>
+        <v>0.2073141481491483</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08737617555740229</v>
+        <v>0.239272721205019</v>
       </c>
       <c r="M3">
-        <v>0.525869197464587</v>
+        <v>0.5732557173137991</v>
       </c>
       <c r="N3">
-        <v>1.74402327741825</v>
+        <v>2.923700254840469</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.425795160043208</v>
+        <v>3.180698909940588</v>
       </c>
       <c r="C4">
-        <v>0.6830822586282181</v>
+        <v>0.2461972570567639</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03746118031117618</v>
+        <v>0.04745524510442145</v>
       </c>
       <c r="F4">
-        <v>2.327617587208039</v>
+        <v>3.665464287824889</v>
       </c>
       <c r="G4">
-        <v>0.0008398115998296604</v>
+        <v>0.002621915001888303</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1103967976774065</v>
+        <v>0.2080127221154555</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08314522904643695</v>
+        <v>0.2391944304334075</v>
       </c>
       <c r="M4">
-        <v>0.4839333175043947</v>
+        <v>0.5653181618475713</v>
       </c>
       <c r="N4">
-        <v>1.761981234588959</v>
+        <v>2.931260879319098</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.298352003836158</v>
+        <v>3.154149411195249</v>
       </c>
       <c r="C5">
-        <v>0.6527969617243627</v>
+        <v>0.2381915310794795</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03610808762220152</v>
+        <v>0.04699815885523684</v>
       </c>
       <c r="F5">
-        <v>2.284817801231881</v>
+        <v>3.66005777879576</v>
       </c>
       <c r="G5">
-        <v>0.0008425382505562462</v>
+        <v>0.002623654809990938</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1110723284060562</v>
+        <v>0.2083119784844882</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08144455304224607</v>
+        <v>0.2391851987342619</v>
       </c>
       <c r="M5">
-        <v>0.4670660357373819</v>
+        <v>0.5621708611408209</v>
       </c>
       <c r="N5">
-        <v>1.769835967234698</v>
+        <v>2.934532333610946</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.277286065348562</v>
+        <v>3.149772897634421</v>
       </c>
       <c r="C6">
-        <v>0.6477875067442085</v>
+        <v>0.2368642135626828</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03588441974307877</v>
+        <v>0.04692202536404189</v>
       </c>
       <c r="F6">
-        <v>2.277776960035425</v>
+        <v>3.659186618671058</v>
       </c>
       <c r="G6">
-        <v>0.0008429936219006352</v>
+        <v>0.002623946841324957</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1111868326984187</v>
+        <v>0.2083625490316336</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08116353181087987</v>
+        <v>0.239185037482244</v>
       </c>
       <c r="M6">
-        <v>0.4642778612559297</v>
+        <v>0.5616535226832227</v>
       </c>
       <c r="N6">
-        <v>1.771171722533722</v>
+        <v>2.935087039506683</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.424069850711078</v>
+        <v>3.180338706662781</v>
       </c>
       <c r="C7">
-        <v>0.6826724840016141</v>
+        <v>0.2460891524876274</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03744286169573208</v>
+        <v>0.04744909635097372</v>
       </c>
       <c r="F7">
-        <v>2.327035881284758</v>
+        <v>3.665389590678075</v>
       </c>
       <c r="G7">
-        <v>0.000839848198652879</v>
+        <v>0.002621938255440698</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1104057500002256</v>
+        <v>0.2080166990150154</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08312220006033044</v>
+        <v>0.239194214027016</v>
       </c>
       <c r="M7">
-        <v>0.4837049764132928</v>
+        <v>0.5652753629447034</v>
       </c>
       <c r="N7">
-        <v>1.762085035698917</v>
+        <v>2.931304229051719</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.087287693371195</v>
+        <v>3.319888403889763</v>
       </c>
       <c r="C8">
-        <v>0.8398426020928866</v>
+        <v>0.2870985603576628</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04449531992192313</v>
+        <v>0.04974149387580162</v>
       </c>
       <c r="F8">
-        <v>2.554752993518719</v>
+        <v>3.69663455315154</v>
       </c>
       <c r="G8">
-        <v>0.0008263318444454013</v>
+        <v>0.002613529581121085</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.107317776968344</v>
+        <v>0.206618689231064</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0919755426621407</v>
+        <v>0.2394335444672109</v>
       </c>
       <c r="M8">
-        <v>0.5714562283909146</v>
+        <v>0.5820248293571524</v>
       </c>
       <c r="N8">
-        <v>1.726789769754845</v>
+        <v>2.916285122020398</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.46054658291979</v>
+        <v>3.610510425707446</v>
       </c>
       <c r="C9">
-        <v>1.164187507446286</v>
+        <v>0.3686760096543367</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05927133491745451</v>
+        <v>0.0541232167500354</v>
       </c>
       <c r="F9">
-        <v>3.046670794771444</v>
+        <v>3.771911695172832</v>
       </c>
       <c r="G9">
-        <v>0.0008009585345875115</v>
+        <v>0.002598662184665781</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1027720997681847</v>
+        <v>0.2043411968546884</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.110205554364498</v>
+        <v>0.2406126947912881</v>
       </c>
       <c r="M9">
-        <v>0.7528692419040794</v>
+        <v>0.617642964631159</v>
       </c>
       <c r="N9">
-        <v>1.677304404155336</v>
+        <v>2.892891337760844</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.532734876667689</v>
+        <v>3.83458199780307</v>
       </c>
       <c r="C10">
-        <v>1.417399709641018</v>
+        <v>0.4293936843794768</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07106611463743207</v>
+        <v>0.05727961681637339</v>
       </c>
       <c r="F10">
-        <v>3.444774722894294</v>
+        <v>3.83585255966716</v>
       </c>
       <c r="G10">
-        <v>0.0007828135397660533</v>
+        <v>0.002588716001425442</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1006063562113404</v>
+        <v>0.2029540338263764</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1242543719841223</v>
+        <v>0.2419079590908595</v>
       </c>
       <c r="M10">
-        <v>0.8941295135839127</v>
+        <v>0.6455215318188792</v>
       </c>
       <c r="N10">
-        <v>1.655713974644001</v>
+        <v>2.879438730277798</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.039266118181501</v>
+        <v>3.93885699771414</v>
       </c>
       <c r="C11">
-        <v>1.53719424860742</v>
+        <v>0.4572028139264717</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07673529910921317</v>
+        <v>0.05870331529216699</v>
       </c>
       <c r="F11">
-        <v>3.636234274621415</v>
+        <v>3.866837839236638</v>
       </c>
       <c r="G11">
-        <v>0.0007746157446875195</v>
+        <v>0.002584400799340494</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09994624765623428</v>
+        <v>0.2023858291827523</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1308206361980737</v>
+        <v>0.2425895918112388</v>
       </c>
       <c r="M11">
-        <v>0.9607287181344475</v>
+        <v>0.6585801503109323</v>
       </c>
       <c r="N11">
-        <v>1.649828779527354</v>
+        <v>2.874138883763138</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.234275747745357</v>
+        <v>3.978683676243406</v>
       </c>
       <c r="C12">
-        <v>1.583356050672421</v>
+        <v>0.4677617813760548</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07893592346797007</v>
+        <v>0.05924079586505471</v>
       </c>
       <c r="F12">
-        <v>3.710459775576169</v>
+        <v>3.878845751250566</v>
       </c>
       <c r="G12">
-        <v>0.000771514544832688</v>
+        <v>0.002582796655105787</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09975027202325393</v>
+        <v>0.2021797611329248</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1333355007115955</v>
+        <v>0.2428609288759276</v>
       </c>
       <c r="M12">
-        <v>0.9863439969853403</v>
+        <v>0.6635795666180897</v>
       </c>
       <c r="N12">
-        <v>1.648239238914044</v>
+        <v>2.872250621417365</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.192125993228558</v>
+        <v>3.970091118679363</v>
       </c>
       <c r="C13">
-        <v>1.573376374113593</v>
+        <v>0.4654864434195929</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07845940362613746</v>
+        <v>0.05912511118330954</v>
       </c>
       <c r="F13">
-        <v>3.694393195251791</v>
+        <v>3.876247401782194</v>
       </c>
       <c r="G13">
-        <v>0.0007721823926496119</v>
+        <v>0.002583140808221842</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09978994746199987</v>
+        <v>0.202223735856073</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1327925632896054</v>
+        <v>0.2428019048480934</v>
       </c>
       <c r="M13">
-        <v>0.9808086512109924</v>
+        <v>0.6625004291586691</v>
       </c>
       <c r="N13">
-        <v>1.648551863250219</v>
+        <v>2.872652001755867</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.055242479762285</v>
+        <v>3.942126731124347</v>
       </c>
       <c r="C14">
-        <v>1.540975152183648</v>
+        <v>0.458070933528461</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07691520213509406</v>
+        <v>0.05874756646092294</v>
       </c>
       <c r="F14">
-        <v>3.642304830967646</v>
+        <v>3.867820228153278</v>
       </c>
       <c r="G14">
-        <v>0.0007743605758279809</v>
+        <v>0.002584268226341108</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09992899616426243</v>
+        <v>0.2023686931111399</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1310269475705965</v>
+        <v>0.242611650377647</v>
       </c>
       <c r="M14">
-        <v>0.962827801884572</v>
+        <v>0.6589903635122738</v>
       </c>
       <c r="N14">
-        <v>1.649684739254397</v>
+        <v>2.873981152324774</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.971829798403519</v>
+        <v>3.925042103817759</v>
       </c>
       <c r="C15">
-        <v>1.521236831252793</v>
+        <v>0.4535324340601505</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07597667732661506</v>
+        <v>0.05851609860259543</v>
       </c>
       <c r="F15">
-        <v>3.610631272468225</v>
+        <v>3.862694128495036</v>
       </c>
       <c r="G15">
-        <v>0.0007756950217988181</v>
+        <v>0.002584962695215461</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1000214370905219</v>
+        <v>0.2024586704882694</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1299492515645255</v>
+        <v>0.2424968332499589</v>
       </c>
       <c r="M15">
-        <v>0.9518674460951715</v>
+        <v>0.656847439376989</v>
       </c>
       <c r="N15">
-        <v>1.650464248762333</v>
+        <v>2.874810773889337</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.500050552460777</v>
+        <v>3.827814795531765</v>
       </c>
       <c r="C16">
-        <v>1.409674664076761</v>
+        <v>0.4275801819960066</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07070255814802451</v>
+        <v>0.05718633903433457</v>
       </c>
       <c r="F16">
-        <v>3.432490082721245</v>
+        <v>3.833865923359667</v>
       </c>
       <c r="G16">
-        <v>0.0007833500115652093</v>
+        <v>0.002589002207851628</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1006566270986369</v>
+        <v>0.2029924370017184</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.123829039046413</v>
+        <v>0.2418652662312653</v>
       </c>
       <c r="M16">
-        <v>0.8898290302247602</v>
+        <v>0.6446757187380285</v>
       </c>
       <c r="N16">
-        <v>1.656183778196379</v>
+        <v>2.879801651390423</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.215770320299214</v>
+        <v>3.768771366529677</v>
       </c>
       <c r="C17">
-        <v>1.342504688763086</v>
+        <v>0.4117083835801623</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06755150851169489</v>
+        <v>0.05636753414101392</v>
       </c>
       <c r="F17">
-        <v>3.326015519697762</v>
+        <v>3.816667993821227</v>
       </c>
       <c r="G17">
-        <v>0.000788057241942506</v>
+        <v>0.002591533815716908</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1011343123857635</v>
+        <v>0.2033360215628832</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1201215080528968</v>
+        <v>0.2415014379955025</v>
       </c>
       <c r="M17">
-        <v>0.8524089946019444</v>
+        <v>0.6373053783038856</v>
       </c>
       <c r="N17">
-        <v>1.660749168858715</v>
+        <v>2.883073922504721</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.053994401112675</v>
+        <v>3.735031567129852</v>
       </c>
       <c r="C18">
-        <v>1.304294624028955</v>
+        <v>0.4025970027590233</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06576698686197702</v>
+        <v>0.05589542788714752</v>
       </c>
       <c r="F18">
-        <v>3.265733387493896</v>
+        <v>3.80695478161087</v>
       </c>
       <c r="G18">
-        <v>0.0007907703699831998</v>
+        <v>0.002593009646627378</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1014391602159996</v>
+        <v>0.2035395515201976</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.118005330318752</v>
+        <v>0.2413008759003858</v>
       </c>
       <c r="M18">
-        <v>0.831102126165348</v>
+        <v>0.6331015771125337</v>
       </c>
       <c r="N18">
-        <v>1.663740586228997</v>
+        <v>2.885033163183692</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.999503886228013</v>
+        <v>3.723645618571084</v>
       </c>
       <c r="C19">
-        <v>1.291426446757953</v>
+        <v>0.3995150432281207</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06516728610818134</v>
+        <v>0.05573537987361377</v>
       </c>
       <c r="F19">
-        <v>3.245481066583608</v>
+        <v>3.803696681547791</v>
       </c>
       <c r="G19">
-        <v>0.0007916900993105223</v>
+        <v>0.002593512729597292</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1015473457151295</v>
+        <v>0.2036094762253704</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1172915390485016</v>
+        <v>0.2412344658283061</v>
       </c>
       <c r="M19">
-        <v>0.8239234480101629</v>
+        <v>0.6316843186054371</v>
       </c>
       <c r="N19">
-        <v>1.664814166094203</v>
+        <v>2.885709749515811</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.245849569530947</v>
+        <v>3.775033806472777</v>
       </c>
       <c r="C20">
-        <v>1.349610217515306</v>
+        <v>0.4133961276929767</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06788398995500344</v>
+        <v>0.05645481571529132</v>
       </c>
       <c r="F20">
-        <v>3.337249058291945</v>
+        <v>3.81848024952879</v>
       </c>
       <c r="G20">
-        <v>0.000787555597938427</v>
+        <v>0.002591262282409175</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1010802988652273</v>
+        <v>0.2032988343547366</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1205144731127916</v>
+        <v>0.2415392679971333</v>
       </c>
       <c r="M20">
-        <v>0.8563696502635807</v>
+        <v>0.6380862955706377</v>
       </c>
       <c r="N20">
-        <v>1.660224852159232</v>
+        <v>2.882717596697717</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.095357370917611</v>
+        <v>3.950331298045285</v>
       </c>
       <c r="C21">
-        <v>1.550469318778369</v>
+        <v>0.4602482723377648</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07736722038826827</v>
+        <v>0.05885850424011352</v>
       </c>
       <c r="F21">
-        <v>3.657555613304652</v>
+        <v>3.870288032526389</v>
       </c>
       <c r="G21">
-        <v>0.0007737207494386796</v>
+        <v>0.002583936265541774</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09988662431909034</v>
+        <v>0.2023258681902824</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1315447546563036</v>
+        <v>0.2426671745667761</v>
       </c>
       <c r="M21">
-        <v>0.9680979587015912</v>
+        <v>0.6600198763489118</v>
       </c>
       <c r="N21">
-        <v>1.649334001912621</v>
+        <v>2.873587521462184</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.669485927880032</v>
+        <v>4.066881553000087</v>
       </c>
       <c r="C22">
-        <v>1.686475236055401</v>
+        <v>0.4910340969252616</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08388496006752177</v>
+        <v>0.06041992640053095</v>
       </c>
       <c r="F22">
-        <v>3.877078998779638</v>
+        <v>3.905747887790596</v>
       </c>
       <c r="G22">
-        <v>0.0007646941880427477</v>
+        <v>0.002579322660851886</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09942560889842156</v>
+        <v>0.2017430440576931</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1389208018282488</v>
+        <v>0.2434813365990394</v>
       </c>
       <c r="M22">
-        <v>1.043459254405448</v>
+        <v>0.6746719560270478</v>
       </c>
       <c r="N22">
-        <v>1.645983960537762</v>
+        <v>2.868312588811875</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.361145778673517</v>
+        <v>4.004494021504968</v>
       </c>
       <c r="C23">
-        <v>1.613402245791008</v>
+        <v>0.4745876125028303</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08037318024747009</v>
+        <v>0.05958740234840576</v>
       </c>
       <c r="F23">
-        <v>3.758896168182531</v>
+        <v>3.886675350462326</v>
       </c>
       <c r="G23">
-        <v>0.0007695122954100732</v>
+        <v>0.002581769131895388</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0996396968614448</v>
+        <v>0.2020492309268249</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1349676145200718</v>
+        <v>0.2430397797311059</v>
       </c>
       <c r="M23">
-        <v>1.003001297073403</v>
+        <v>0.6668227522247534</v>
       </c>
       <c r="N23">
-        <v>1.647399869113855</v>
+        <v>2.87106432951245</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.23224560503246</v>
+        <v>3.772201918899555</v>
       </c>
       <c r="C24">
-        <v>1.346396550662973</v>
+        <v>0.4126330565323997</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06773359155323178</v>
+        <v>0.05641535997327551</v>
       </c>
       <c r="F24">
-        <v>3.332167491264443</v>
+        <v>3.817660386532424</v>
       </c>
       <c r="G24">
-        <v>0.0007877823693150972</v>
+        <v>0.002591384978972516</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1011046247792251</v>
+        <v>0.2033156280116195</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1203367660867087</v>
+        <v>0.241522138237066</v>
       </c>
       <c r="M24">
-        <v>0.8545783992750913</v>
+        <v>0.6377331385308054</v>
       </c>
       <c r="N24">
-        <v>1.660460758885549</v>
+        <v>2.882878448800156</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.079456236347312</v>
+        <v>3.530051854809074</v>
       </c>
       <c r="C25">
-        <v>1.074234079460496</v>
+        <v>0.3464752972495262</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05513872388596397</v>
+        <v>0.05294935202497797</v>
       </c>
       <c r="F25">
-        <v>2.90787391640049</v>
+        <v>3.750037958701796</v>
       </c>
       <c r="G25">
-        <v>0.0008077199708240052</v>
+        <v>0.002602511798394809</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1038164495670912</v>
+        <v>0.204907314400117</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1051687986837138</v>
+        <v>0.2402181074471414</v>
       </c>
       <c r="M25">
-        <v>0.7025746939114725</v>
+        <v>0.6077084942043101</v>
       </c>
       <c r="N25">
-        <v>1.688318871510987</v>
+        <v>2.898567128365741</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.358839897227597</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.298285615648922</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05035469001898107</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.706044695401189</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002611361463643396</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2062711819693774</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.239546571594353</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5867500080686696</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.912624198134026</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.24715315543159</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2659263982062612</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04856748507910957</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.67981311465897</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.002617772876892005</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2073141481491483</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.239272721205019</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5732557173137991</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.923700254840469</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.180698909940588</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2461972570567639</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04745524510442145</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.665464287824889</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002621915001888303</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2080127221154555</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2391944304334075</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5653181618475713</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.931260879319098</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.154149411195249</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2381915310794795</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04699815885523684</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.66005777879576</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002623654809990938</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2083119784844882</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2391851987342619</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5621708611408209</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.934532333610946</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.149772897634421</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2368642135626828</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04692202536404189</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3.659186618671058</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002623946841324957</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2083625490316336</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.239185037482244</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5616535226832227</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.935087039506683</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.180338706662781</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2460891524876274</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04744909635097372</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3.665389590678075</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002621938255440698</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2080166990150154</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.239194214027016</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5652753629447034</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.931304229051719</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.319888403889763</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2870985603576628</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04974149387580162</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3.69663455315154</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.002613529581121085</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.206618689231064</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2394335444672109</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5820248293571524</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.916285122020398</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.610510425707446</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3686760096543367</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0541232167500354</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.771911695172832</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.002598662184665781</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2043411968546884</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2406126947912881</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.617642964631159</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.892891337760844</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.83458199780307</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4293936843794768</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05727961681637339</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3.83585255966716</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002588716001425442</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2029540338263764</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2419079590908595</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6455215318188792</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.879438730277798</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.93885699771414</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4572028139264717</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05870331529216699</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3.866837839236638</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002584400799340494</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2023858291827523</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2425895918112388</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6585801503109323</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.874138883763138</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.978683676243406</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4677617813760548</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05924079586505471</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>3.878845751250566</v>
+        <v>2.518780942186353</v>
       </c>
       <c r="G12">
-        <v>0.002582796655105787</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2021797611329248</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2428609288759276</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6635795666180897</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.872250621417365</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.970091118679363</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4654864434195929</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05912511118330954</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>3.876247401782194</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002583140808221842</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.202223735856073</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2428019048480934</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6625004291586691</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.872652001755867</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.942126731124347</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.458070933528461</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05874756646092294</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>3.867820228153278</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.002584268226341108</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2023686931111399</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.242611650377647</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6589903635122738</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.873981152324774</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.925042103817759</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4535324340601505</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05851609860259543</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>3.862694128495036</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002584962695215461</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2024586704882694</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2424968332499589</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.656847439376989</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.874810773889337</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827814795531765</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4275801819960066</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05718633903433457</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>3.833865923359667</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002589002207851628</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2029924370017184</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2418652662312653</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6446757187380285</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.879801651390423</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.768771366529677</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4117083835801623</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05636753414101392</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3.816667993821227</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002591533815716908</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2033360215628832</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2415014379955025</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6373053783038856</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.883073922504721</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.735031567129852</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4025970027590233</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05589542788714752</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>3.80695478161087</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002593009646627378</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2035395515201976</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2413008759003858</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6331015771125337</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.885033163183692</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.723645618571084</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3995150432281207</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05573537987361377</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3.803696681547791</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002593512729597292</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2036094762253704</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2412344658283061</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6316843186054371</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.885709749515811</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.775033806472777</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4133961276929767</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05645481571529132</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>3.81848024952879</v>
+        <v>2.174835551210123</v>
       </c>
       <c r="G20">
-        <v>0.002591262282409175</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2032988343547366</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2415392679971333</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6380862955706377</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.882717596697717</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.950331298045285</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4602482723377648</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05885850424011352</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>3.870288032526389</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002583936265541774</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2023258681902824</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2426671745667761</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6600198763489118</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.873587521462184</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.066881553000087</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4910340969252616</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06041992640053095</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>3.905747887790596</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002579322660851886</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2017430440576931</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2434813365990394</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6746719560270478</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.868312588811875</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.004494021504968</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4745876125028303</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05958740234840576</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>3.886675350462326</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002581769131895388</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2020492309268249</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2430397797311059</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6668227522247534</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.87106432951245</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.772201918899555</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4126330565323997</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05641535997327551</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>3.817660386532424</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002591384978972516</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2033156280116195</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.241522138237066</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6377331385308054</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.882878448800156</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.530051854809074</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3464752972495262</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05294935202497797</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>3.750037958701796</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002602511798394809</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.204907314400117</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2402181074471414</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6077084942043101</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.898567128365741</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.518780942186353</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.174835551210123</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.093281975671744</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.08507507989096297</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.08538992517543065</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.455836904019748</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.8581699763704052</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01237382786354407</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01829256405527779</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6320295612235469</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7063615233019291</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0693021826315583</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9332730324888985</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3490029367378042</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.9524541764741912</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.07646643034472334</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.07648513219944775</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.368843988274563</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.8284924029238567</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0159299741209209</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02242137263576716</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6230932810082521</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6933520654533964</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06590216712032948</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8120117409995942</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3069025293734171</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8659112582748207</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0712544047208965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.07102412790389323</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.315852820557339</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.810575977605609</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01842644085099576</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02529843218986638</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6178299002568508</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6854657323808055</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06378137117405558</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7376966234987492</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.281212100777978</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.830401170257943</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.06926387922766253</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.06882364458397561</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.293066170664872</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.8020588224692347</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01952633940361104</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02665153249890384</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6150722613960937</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.681316238068618</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06294767684188152</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7076663207514002</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2711372611397564</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8242363341401528</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.06907913160979007</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06848778981706261</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.287710984612417</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.7990770952719686</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01972164168856838</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02700777306797875</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.61380360242498</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6794576290659187</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06285740086205038</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7029598731857902</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2699051309896134</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.8647001996645827</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.07162404722142668</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.07107511908766995</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.311237758358118</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.8061698857796813</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01846207730277794</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02564383799536252</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6155728921965533</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.682213939165166</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06390406420799444</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7380537046250026</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2822762367261191</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.043750003761232</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.08262005001881079</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.08242482740810075</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.420053827875407</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.8422096223746678</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01355598165122232</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0200338621903926</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6259831509532034</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6976455919231768</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.06831968788721987</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8924399008360524</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3360500479423507</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.395959224743308</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1041923927270147</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1046284052542426</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.64492738871968</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.9232644508667534</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006522965406169035</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01139446506336572</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6522366951101617</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7345043330898733</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07648423476448585</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.195375516499809</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4407837205027363</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.652680282774242</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1219032078129985</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.117431541101169</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>1.781538901661818</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.9650617197813318</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003477248552416601</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007227714249262718</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6627681373475269</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7482792870827524</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08367710291179264</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.421698833063829</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5061994491579185</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.750283911314966</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1404128691112305</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.09380719289734074</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.589788940347134</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.830649117284338</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0219262222511496</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006833127028532893</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5894533028256177</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6476062182469704</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1027467878698118</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.542140204595569</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.427452925197116</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.779136072704944</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1526045510101568</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.07403014774544658</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>1.414571805655399</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.722768263584058</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06079800761126819</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006698870562788173</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5323827291311858</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5714355439599075</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1231656216671126</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.595330444219741</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3517995510593863</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.755253020276285</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1610958403534113</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.05628254943498945</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.23565916559879</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.62226777618271</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1170568942675771</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0071624599489164</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4809433539438004</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5046371066483353</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1457164404927838</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.600464229348802</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2765443478965892</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.71448697441835</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1655899676604093</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04530126488738517</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.110004711076868</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5558395884383316</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1669100932534775</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.007878577751207594</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4476940684529751</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4626333175512833</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1631918027038068</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.582532637840956</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2257154683228748</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.693097561182555</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1659813807862491</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04271233018342713</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.076500683241903</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.5392208407508576</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1796611713189691</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008339240464145803</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4397853445093318</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4528219008124559</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1672723193457983</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.568129793861317</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2130076422416494</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.587092312751537</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1564589594680967</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04136968877471681</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.054939060740637</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.5402063344071522</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1682136966891079</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01010386163042032</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4446513501943201</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.459252140340471</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1589881654624676</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.469179427425871</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2030179333296047</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.527576255672585</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1467907338459042</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.04581719079581603</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.103664078110569</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.5752788813879448</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1311839259339251</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01113440001121813</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4656453396998188</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4857119112739099</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1429720921436726</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.403107930682438</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2214387166748821</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.501548410291008</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1358147636987184</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.05725351574883852</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.226314707814922</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.6504752523075297</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07849328706546288</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0111793897325656</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5062526156416425</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5378516535648821</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1208840986101691</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.357097132244149</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2692208115304311</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.502652139109614</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1261946551345545</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.07597771784481822</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>1.401735362301835</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.7533140669749088</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03266087687700292</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01098055394270236</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5597972853401387</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6083314591073901</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1004138900527529</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.332262674065021</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3446594484499599</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.582737368223263</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1185422324193723</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.1141603513264435</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.730937468130634</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.9400887606990267</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004172858083301367</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.009107693756071455</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6528184487745818</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7344068369858903</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08234114241101054</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.364614790954477</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4921997698551763</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.783633601211335</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1305767459955618</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.1296525094859113</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.885211187958063</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.003280006304152</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001948131423379795</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006240099897292239</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6768211774315063</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7666313960427686</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08579353012170898</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.535755839401133</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5626058171241226</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.915163484369202</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.138607658392857</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.1378456465574445</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>1.977411176289607</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.041572242001166</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001036090207978013</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004479066344047489</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6910223450461217</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7855984329363181</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08848152967723877</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.648028129793005</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.600538682179689</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.845860702267998</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1338103565163706</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.1333725032596185</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>1.933182054139195</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.026049922576391</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001479980289839755</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005037574488074625</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6859498113528275</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.779127824767663</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08686599214568602</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.587145936949156</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5788073445441171</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.582469493656816</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1167902925550166</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.1166628734620119</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.759406336003025</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.9607057200081641</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003951972203180776</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.008523363479961077</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.663464136643185</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7493472573247146</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08100165223104128</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.359035914590208</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4993656055054601</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.299275490566828</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.09899594044113513</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.09875305745961072</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.575858076795782</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.8933164794705419</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.008148279824538196</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01393217447012951</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6409683330169713</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7187232638258934</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07456280991243247</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.114578506080477</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4144741043151328</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.093281975671744</v>
+        <v>1.077007537909708</v>
       </c>
       <c r="C2">
-        <v>0.08507507989096297</v>
+        <v>0.08667138854990952</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08538992517543065</v>
+        <v>0.08957873827650076</v>
       </c>
       <c r="F2">
-        <v>1.455836904019748</v>
+        <v>1.31364176861463</v>
       </c>
       <c r="G2">
-        <v>0.8581699763704052</v>
+        <v>0.7022770481984537</v>
       </c>
       <c r="H2">
-        <v>0.01237382786354407</v>
+        <v>0.009805143017136191</v>
       </c>
       <c r="I2">
-        <v>0.01829256405527779</v>
+        <v>0.01321918644964182</v>
       </c>
       <c r="J2">
-        <v>0.6320295612235469</v>
+        <v>0.5544325353387762</v>
       </c>
       <c r="K2">
-        <v>0.7063615233019291</v>
+        <v>0.5810495319807387</v>
       </c>
       <c r="L2">
-        <v>0.0693021826315583</v>
+        <v>0.2408246601310644</v>
       </c>
       <c r="M2">
-        <v>0.9332730324888985</v>
+        <v>0.1958880049882339</v>
       </c>
       <c r="N2">
-        <v>0.3490029367378042</v>
+        <v>0.06921763773618395</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9623186145423404</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3929457329924873</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9524541764741912</v>
+        <v>0.9391218833863206</v>
       </c>
       <c r="C3">
-        <v>0.07646643034472334</v>
+        <v>0.07598492011081959</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07648513219944775</v>
+        <v>0.08038937258957901</v>
       </c>
       <c r="F3">
-        <v>1.368843988274563</v>
+        <v>1.244001483448585</v>
       </c>
       <c r="G3">
-        <v>0.8284924029238567</v>
+        <v>0.6906712264858896</v>
       </c>
       <c r="H3">
-        <v>0.0159299741209209</v>
+        <v>0.01274326618485525</v>
       </c>
       <c r="I3">
-        <v>0.02242137263576716</v>
+        <v>0.01626187404349322</v>
       </c>
       <c r="J3">
-        <v>0.6230932810082521</v>
+        <v>0.5479090439922771</v>
       </c>
       <c r="K3">
-        <v>0.6933520654533964</v>
+        <v>0.5782998422638173</v>
       </c>
       <c r="L3">
-        <v>0.06590216712032948</v>
+        <v>0.2440790229011967</v>
       </c>
       <c r="M3">
-        <v>0.8120117409995942</v>
+        <v>0.1922382873627981</v>
       </c>
       <c r="N3">
-        <v>0.3069025293734171</v>
+        <v>0.06460005029141414</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8368588495129927</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3450297322660703</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8659112582748207</v>
+        <v>0.8542635640141896</v>
       </c>
       <c r="C4">
-        <v>0.0712544047208965</v>
+        <v>0.06954858602693292</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07102412790389323</v>
+        <v>0.0747549162594332</v>
       </c>
       <c r="F4">
-        <v>1.315852820557339</v>
+        <v>1.20149019749141</v>
       </c>
       <c r="G4">
-        <v>0.810575977605609</v>
+        <v>0.6838808492556296</v>
       </c>
       <c r="H4">
-        <v>0.01842644085099576</v>
+        <v>0.01481445969248185</v>
       </c>
       <c r="I4">
-        <v>0.02529843218986638</v>
+        <v>0.01840336441386814</v>
       </c>
       <c r="J4">
-        <v>0.6178299002568508</v>
+        <v>0.543857536966101</v>
       </c>
       <c r="K4">
-        <v>0.6854657323808055</v>
+        <v>0.5766290586237481</v>
       </c>
       <c r="L4">
-        <v>0.06378137117405558</v>
+        <v>0.2459907589033818</v>
       </c>
       <c r="M4">
-        <v>0.7376966234987492</v>
+        <v>0.1906191043834085</v>
       </c>
       <c r="N4">
-        <v>0.281212100777978</v>
+        <v>0.06176345453091159</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7599287225414741</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3158350190448971</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.830401170257943</v>
+        <v>0.8194271211733621</v>
       </c>
       <c r="C5">
-        <v>0.06926387922766253</v>
+        <v>0.06708659935663519</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06882364458397561</v>
+        <v>0.07248285230159368</v>
       </c>
       <c r="F5">
-        <v>1.293066170664872</v>
+        <v>1.183095214368009</v>
       </c>
       <c r="G5">
-        <v>0.8020588224692347</v>
+        <v>0.6801375354494752</v>
       </c>
       <c r="H5">
-        <v>0.01952633940361104</v>
+        <v>0.01572878021810747</v>
       </c>
       <c r="I5">
-        <v>0.02665153249890384</v>
+        <v>0.01944975814660044</v>
       </c>
       <c r="J5">
-        <v>0.6150722613960937</v>
+        <v>0.5416256502785757</v>
       </c>
       <c r="K5">
-        <v>0.681316238068618</v>
+        <v>0.5751783109381883</v>
       </c>
       <c r="L5">
-        <v>0.06294767684188152</v>
+        <v>0.2463969352706386</v>
       </c>
       <c r="M5">
-        <v>0.7076663207514002</v>
+        <v>0.1898874679048763</v>
       </c>
       <c r="N5">
-        <v>0.2711372611397564</v>
+        <v>0.06066285573342967</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7288089899133752</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3043359052925467</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8242363341401528</v>
+        <v>0.8133921055581936</v>
       </c>
       <c r="C6">
-        <v>0.06907913160979007</v>
+        <v>0.06684235896489099</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06848778981706261</v>
+        <v>0.07213348375854522</v>
       </c>
       <c r="F6">
-        <v>1.287710984612417</v>
+        <v>1.178666762983994</v>
       </c>
       <c r="G6">
-        <v>0.7990770952719686</v>
+        <v>0.6782341871138016</v>
       </c>
       <c r="H6">
-        <v>0.01972164168856838</v>
+        <v>0.01589114388798912</v>
       </c>
       <c r="I6">
-        <v>0.02700777306797875</v>
+        <v>0.01976741444188335</v>
       </c>
       <c r="J6">
-        <v>0.61380360242498</v>
+        <v>0.5405600857623369</v>
       </c>
       <c r="K6">
-        <v>0.6794576290659187</v>
+        <v>0.5739949006405922</v>
       </c>
       <c r="L6">
-        <v>0.06285740086205038</v>
+        <v>0.2460356648681064</v>
       </c>
       <c r="M6">
-        <v>0.7029598731857902</v>
+        <v>0.1894975091294668</v>
       </c>
       <c r="N6">
-        <v>0.2699051309896134</v>
+        <v>0.06054946526955618</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7239015458348774</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3028523571019974</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8647001996645827</v>
+        <v>0.8534840361978695</v>
       </c>
       <c r="C7">
-        <v>0.07162404722142668</v>
+        <v>0.0696848013236675</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07107511908766995</v>
+        <v>0.0749978837346319</v>
       </c>
       <c r="F7">
-        <v>1.311237758358118</v>
+        <v>1.195562406535402</v>
       </c>
       <c r="G7">
-        <v>0.8061698857796813</v>
+        <v>0.6823637778588676</v>
       </c>
       <c r="H7">
-        <v>0.01846207730277794</v>
+        <v>0.01485275315849194</v>
       </c>
       <c r="I7">
-        <v>0.02564383799536252</v>
+        <v>0.01879266759347065</v>
       </c>
       <c r="J7">
-        <v>0.6155728921965533</v>
+        <v>0.5363741274761793</v>
       </c>
       <c r="K7">
-        <v>0.682213939165166</v>
+        <v>0.5728073135997569</v>
       </c>
       <c r="L7">
-        <v>0.06390406420799444</v>
+        <v>0.2443069481533939</v>
       </c>
       <c r="M7">
-        <v>0.7380537046250026</v>
+        <v>0.1894532194106322</v>
       </c>
       <c r="N7">
-        <v>0.2822762367261191</v>
+        <v>0.06204133931385059</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7597614548552372</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3172269040379803</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.043750003761232</v>
+        <v>1.029819604537437</v>
       </c>
       <c r="C8">
-        <v>0.08262005001881079</v>
+        <v>0.08262379187021907</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08242482740810075</v>
+        <v>0.08717288573035376</v>
       </c>
       <c r="F8">
-        <v>1.420053827875407</v>
+        <v>1.27828797086481</v>
       </c>
       <c r="G8">
-        <v>0.8422096223746678</v>
+        <v>0.7004584767345108</v>
       </c>
       <c r="H8">
-        <v>0.01355598165122232</v>
+        <v>0.01080310012790098</v>
       </c>
       <c r="I8">
-        <v>0.0200338621903926</v>
+        <v>0.01468144248441927</v>
       </c>
       <c r="J8">
-        <v>0.6259831509532034</v>
+        <v>0.5316624536661152</v>
       </c>
       <c r="K8">
-        <v>0.6976455919231768</v>
+        <v>0.5727388488649261</v>
       </c>
       <c r="L8">
-        <v>0.06831968788721987</v>
+        <v>0.238902751074729</v>
       </c>
       <c r="M8">
-        <v>0.8924399008360524</v>
+        <v>0.1920541876420998</v>
       </c>
       <c r="N8">
-        <v>0.3360500479423507</v>
+        <v>0.06824705299774436</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9184409947621077</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.379229327756164</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.395959224743308</v>
+        <v>1.374209905866934</v>
       </c>
       <c r="C9">
-        <v>0.1041923927270147</v>
+        <v>0.1093260458133329</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1046284052542426</v>
+        <v>0.1102862634023722</v>
       </c>
       <c r="F9">
-        <v>1.64492738871968</v>
+        <v>1.456482518375296</v>
       </c>
       <c r="G9">
-        <v>0.9232644508667534</v>
+        <v>0.7376709246595397</v>
       </c>
       <c r="H9">
-        <v>0.006522965406169035</v>
+        <v>0.005036987537433868</v>
       </c>
       <c r="I9">
-        <v>0.01139446506336572</v>
+        <v>0.008295700595346567</v>
       </c>
       <c r="J9">
-        <v>0.6522366951101617</v>
+        <v>0.5451167168623385</v>
       </c>
       <c r="K9">
-        <v>0.7345043330898733</v>
+        <v>0.5817910759147793</v>
       </c>
       <c r="L9">
-        <v>0.07648423476448585</v>
+        <v>0.2314627241029008</v>
       </c>
       <c r="M9">
-        <v>1.195375516499809</v>
+        <v>0.2050187029862904</v>
       </c>
       <c r="N9">
-        <v>0.4407837205027363</v>
+        <v>0.07969269886945796</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.231170183347473</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4992752683447463</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.652680282774242</v>
+        <v>1.627157696077688</v>
       </c>
       <c r="C10">
-        <v>0.1219032078129985</v>
+        <v>0.1293001756268097</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.117431541101169</v>
+        <v>0.1247748043467283</v>
       </c>
       <c r="F10">
-        <v>1.781538901661818</v>
+        <v>1.551927107177406</v>
       </c>
       <c r="G10">
-        <v>0.9650617197813318</v>
+        <v>0.7650344462575163</v>
       </c>
       <c r="H10">
-        <v>0.003477248552416601</v>
+        <v>0.002645147837725847</v>
       </c>
       <c r="I10">
-        <v>0.007227714249262718</v>
+        <v>0.005411179304501523</v>
       </c>
       <c r="J10">
-        <v>0.6627681373475269</v>
+        <v>0.5181284425853363</v>
       </c>
       <c r="K10">
-        <v>0.7482792870827524</v>
+        <v>0.5723280147372733</v>
       </c>
       <c r="L10">
-        <v>0.08367710291179264</v>
+        <v>0.219845258793157</v>
       </c>
       <c r="M10">
-        <v>1.421698833063829</v>
+        <v>0.2111472696047691</v>
       </c>
       <c r="N10">
-        <v>0.5061994491579185</v>
+        <v>0.09077927758842463</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.461029957643433</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5768718914623747</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.750283911314966</v>
+        <v>1.731473228919072</v>
       </c>
       <c r="C11">
-        <v>0.1404128691112305</v>
+        <v>0.1446946427515599</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09380719289734074</v>
+        <v>0.1021019262104765</v>
       </c>
       <c r="F11">
-        <v>1.589788940347134</v>
+        <v>1.366274301641795</v>
       </c>
       <c r="G11">
-        <v>0.830649117284338</v>
+        <v>0.6841539837303401</v>
       </c>
       <c r="H11">
-        <v>0.0219262222511496</v>
+        <v>0.02117631914297036</v>
       </c>
       <c r="I11">
-        <v>0.006833127028532893</v>
+        <v>0.005440934187570967</v>
       </c>
       <c r="J11">
-        <v>0.5894533028256177</v>
+        <v>0.4150608695251918</v>
       </c>
       <c r="K11">
-        <v>0.6476062182469704</v>
+        <v>0.486169838826541</v>
       </c>
       <c r="L11">
-        <v>0.1027467878698118</v>
+        <v>0.1866864162815602</v>
       </c>
       <c r="M11">
-        <v>1.542140204595569</v>
+        <v>0.1809270063293198</v>
       </c>
       <c r="N11">
-        <v>0.427452925197116</v>
+        <v>0.1182008024952168</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.573510436936317</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4926535161771284</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.779136072704944</v>
+        <v>1.765562363246289</v>
       </c>
       <c r="C12">
-        <v>0.1526045510101568</v>
+        <v>0.1541379381825578</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07403014774544658</v>
+        <v>0.0817891951951637</v>
       </c>
       <c r="F12">
-        <v>1.414571805655399</v>
+        <v>1.210451707522623</v>
       </c>
       <c r="G12">
-        <v>0.722768263584058</v>
+        <v>0.6111757697725011</v>
       </c>
       <c r="H12">
-        <v>0.06079800761126819</v>
+        <v>0.06003267627708198</v>
       </c>
       <c r="I12">
-        <v>0.006698870562788173</v>
+        <v>0.005357330556240214</v>
       </c>
       <c r="J12">
-        <v>0.5323827291311858</v>
+        <v>0.3632278941710112</v>
       </c>
       <c r="K12">
-        <v>0.5714355439599075</v>
+        <v>0.4294643228573847</v>
       </c>
       <c r="L12">
-        <v>0.1231656216671126</v>
+        <v>0.1666767341041577</v>
       </c>
       <c r="M12">
-        <v>1.595330444219741</v>
+        <v>0.1589335270097365</v>
       </c>
       <c r="N12">
-        <v>0.3517995510593863</v>
+        <v>0.1439672041713038</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.620784371270162</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4086932165146635</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.755253020276285</v>
+        <v>1.745083410129439</v>
       </c>
       <c r="C13">
-        <v>0.1610958403534113</v>
+        <v>0.1611901934110733</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05628254943498945</v>
+        <v>0.06232498720100565</v>
       </c>
       <c r="F13">
-        <v>1.23565916559879</v>
+        <v>1.065109010556085</v>
       </c>
       <c r="G13">
-        <v>0.62226777618271</v>
+        <v>0.5314776865518809</v>
       </c>
       <c r="H13">
-        <v>0.1170568942675771</v>
+        <v>0.1161860275764326</v>
       </c>
       <c r="I13">
-        <v>0.0071624599489164</v>
+        <v>0.005656828981128292</v>
       </c>
       <c r="J13">
-        <v>0.4809433539438004</v>
+        <v>0.3418352764251225</v>
       </c>
       <c r="K13">
-        <v>0.5046371066483353</v>
+        <v>0.3882717398919979</v>
       </c>
       <c r="L13">
-        <v>0.1457164404927838</v>
+        <v>0.1532685043397297</v>
       </c>
       <c r="M13">
-        <v>1.600464229348802</v>
+        <v>0.1413067162564516</v>
       </c>
       <c r="N13">
-        <v>0.2765443478965892</v>
+        <v>0.1684643938388248</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.622606266173506</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3222417336683492</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.71448697441835</v>
+        <v>1.705900249242461</v>
       </c>
       <c r="C14">
-        <v>0.1655899676604093</v>
+        <v>0.1653207008398709</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04530126488738517</v>
+        <v>0.04988178724912373</v>
       </c>
       <c r="F14">
-        <v>1.110004711076868</v>
+        <v>0.9676799766570241</v>
       </c>
       <c r="G14">
-        <v>0.5558395884383316</v>
+        <v>0.4745714594608401</v>
       </c>
       <c r="H14">
-        <v>0.1669100932534775</v>
+        <v>0.165919803647725</v>
       </c>
       <c r="I14">
-        <v>0.007878577751207594</v>
+        <v>0.006166702981382777</v>
       </c>
       <c r="J14">
-        <v>0.4476940684529751</v>
+        <v>0.3366850484378645</v>
       </c>
       <c r="K14">
-        <v>0.4626333175512833</v>
+        <v>0.3655797316784444</v>
       </c>
       <c r="L14">
-        <v>0.1631918027038068</v>
+        <v>0.1462682841197829</v>
       </c>
       <c r="M14">
-        <v>1.582532637840956</v>
+        <v>0.1309008101661249</v>
       </c>
       <c r="N14">
-        <v>0.2257154683228748</v>
+        <v>0.1852669412916583</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.603472288199725</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2628566161338739</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.693097561182555</v>
+        <v>1.684578450683489</v>
       </c>
       <c r="C15">
-        <v>0.1659813807862491</v>
+        <v>0.1659548985818873</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04271233018342713</v>
+        <v>0.04682914971940555</v>
       </c>
       <c r="F15">
-        <v>1.076500683241903</v>
+        <v>0.9435166428197448</v>
       </c>
       <c r="G15">
-        <v>0.5392208407508576</v>
+        <v>0.4588781980803489</v>
       </c>
       <c r="H15">
-        <v>0.1796611713189691</v>
+        <v>0.1786131768893853</v>
       </c>
       <c r="I15">
-        <v>0.008339240464145803</v>
+        <v>0.006544316748612999</v>
       </c>
       <c r="J15">
-        <v>0.4397853445093318</v>
+        <v>0.3390021454797392</v>
       </c>
       <c r="K15">
-        <v>0.4528219008124559</v>
+        <v>0.3615327675259472</v>
       </c>
       <c r="L15">
-        <v>0.1672723193457983</v>
+        <v>0.1451627441088998</v>
       </c>
       <c r="M15">
-        <v>1.568129793861317</v>
+        <v>0.1287482571614156</v>
       </c>
       <c r="N15">
-        <v>0.2130076422416494</v>
+        <v>0.1884341895933659</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.58924573257022</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2476146550907146</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.587092312751537</v>
+        <v>1.575951068714289</v>
       </c>
       <c r="C16">
-        <v>0.1564589594680967</v>
+        <v>0.1591292075166564</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04136968877471681</v>
+        <v>0.04439274139091332</v>
       </c>
       <c r="F16">
-        <v>1.054939060740637</v>
+        <v>0.9435004571534051</v>
       </c>
       <c r="G16">
-        <v>0.5402063344071522</v>
+        <v>0.4484768259381227</v>
       </c>
       <c r="H16">
-        <v>0.1682136966891079</v>
+        <v>0.1668687094066001</v>
       </c>
       <c r="I16">
-        <v>0.01010386163042032</v>
+        <v>0.007802956278826656</v>
       </c>
       <c r="J16">
-        <v>0.4446513501943201</v>
+        <v>0.3756601759570728</v>
       </c>
       <c r="K16">
-        <v>0.459252140340471</v>
+        <v>0.3773468803612481</v>
       </c>
       <c r="L16">
-        <v>0.1589881654624676</v>
+        <v>0.1516932673814289</v>
       </c>
       <c r="M16">
-        <v>1.469179427425871</v>
+        <v>0.1329626031065949</v>
       </c>
       <c r="N16">
-        <v>0.2030179333296047</v>
+        <v>0.1746004556072407</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.494162700822045</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2330243556158109</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.527576255672585</v>
+        <v>1.51422646087579</v>
       </c>
       <c r="C17">
-        <v>0.1467907338459042</v>
+        <v>0.1510294760795574</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04581719079581603</v>
+        <v>0.04867515825957902</v>
       </c>
       <c r="F17">
-        <v>1.103664078110569</v>
+        <v>0.9931881229141908</v>
       </c>
       <c r="G17">
-        <v>0.5752788813879448</v>
+        <v>0.4711299131960303</v>
       </c>
       <c r="H17">
-        <v>0.1311839259339251</v>
+        <v>0.1296717759407642</v>
       </c>
       <c r="I17">
-        <v>0.01113440001121813</v>
+        <v>0.008555343775596747</v>
       </c>
       <c r="J17">
-        <v>0.4656453396998188</v>
+        <v>0.4068213181700031</v>
       </c>
       <c r="K17">
-        <v>0.4857119112739099</v>
+        <v>0.4012125819363241</v>
       </c>
       <c r="L17">
-        <v>0.1429720921436726</v>
+        <v>0.1608473734609692</v>
       </c>
       <c r="M17">
-        <v>1.403107930682438</v>
+        <v>0.1411568439038611</v>
       </c>
       <c r="N17">
-        <v>0.2214387166748821</v>
+        <v>0.1557953502981135</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.430819619777452</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2523577493851406</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.501548410291008</v>
+        <v>1.485225563186503</v>
       </c>
       <c r="C18">
-        <v>0.1358147636987184</v>
+        <v>0.1414184045350595</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05725351574883852</v>
+        <v>0.06046794539975764</v>
       </c>
       <c r="F18">
-        <v>1.226314707814922</v>
+        <v>1.101311688438884</v>
       </c>
       <c r="G18">
-        <v>0.6504752523075297</v>
+        <v>0.5257288444533117</v>
       </c>
       <c r="H18">
-        <v>0.07849328706546288</v>
+        <v>0.07694788759513216</v>
       </c>
       <c r="I18">
-        <v>0.0111793897325656</v>
+        <v>0.008472545211335891</v>
       </c>
       <c r="J18">
-        <v>0.5062526156416425</v>
+        <v>0.4443462833653555</v>
       </c>
       <c r="K18">
-        <v>0.5378516535648821</v>
+        <v>0.4403761588416408</v>
       </c>
       <c r="L18">
-        <v>0.1208840986101691</v>
+        <v>0.1754656934524874</v>
       </c>
       <c r="M18">
-        <v>1.357097132244149</v>
+        <v>0.155636505455675</v>
       </c>
       <c r="N18">
-        <v>0.2692208115304311</v>
+        <v>0.1318473499577806</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.388041456400487</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3056237023634054</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.502652139109614</v>
+        <v>1.482751269302042</v>
       </c>
       <c r="C19">
-        <v>0.1261946551345545</v>
+        <v>0.1330402469222207</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07597771784481822</v>
+        <v>0.07994530295393432</v>
       </c>
       <c r="F19">
-        <v>1.401735362301835</v>
+        <v>1.251113601030809</v>
       </c>
       <c r="G19">
-        <v>0.7533140669749088</v>
+        <v>0.6006600383972227</v>
       </c>
       <c r="H19">
-        <v>0.03266087687700292</v>
+        <v>0.03122100477600043</v>
       </c>
       <c r="I19">
-        <v>0.01098055394270236</v>
+        <v>0.008395220894193756</v>
       </c>
       <c r="J19">
-        <v>0.5597972853401387</v>
+        <v>0.4862576698576646</v>
       </c>
       <c r="K19">
-        <v>0.6083314591073901</v>
+        <v>0.4901743678442578</v>
       </c>
       <c r="L19">
-        <v>0.1004138900527529</v>
+        <v>0.1938030042238594</v>
       </c>
       <c r="M19">
-        <v>1.332262674065021</v>
+        <v>0.1745576813391132</v>
       </c>
       <c r="N19">
-        <v>0.3446594484499599</v>
+        <v>0.1094167327518463</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.366892534867986</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3903124484483556</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.582737368223263</v>
+        <v>1.557135473149799</v>
       </c>
       <c r="C20">
-        <v>0.1185422324193723</v>
+        <v>0.1265840267639504</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1141603513264435</v>
+        <v>0.1203143638697313</v>
       </c>
       <c r="F20">
-        <v>1.730937468130634</v>
+        <v>1.521076016221429</v>
       </c>
       <c r="G20">
-        <v>0.9400887606990267</v>
+        <v>0.7391219334166976</v>
       </c>
       <c r="H20">
-        <v>0.004172858083301367</v>
+        <v>0.003170134342631581</v>
       </c>
       <c r="I20">
-        <v>0.009107693756071455</v>
+        <v>0.007107260055942533</v>
       </c>
       <c r="J20">
-        <v>0.6528184487745818</v>
+        <v>0.537790171102543</v>
       </c>
       <c r="K20">
-        <v>0.7344068369858903</v>
+        <v>0.5711752537720542</v>
       </c>
       <c r="L20">
-        <v>0.08234114241101054</v>
+        <v>0.2215493675036413</v>
       </c>
       <c r="M20">
-        <v>1.364614790954477</v>
+        <v>0.2079872708249972</v>
       </c>
       <c r="N20">
-        <v>0.4921997698551763</v>
+        <v>0.08821328060341216</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.404599707262122</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5580531548924199</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.783633601211335</v>
+        <v>1.761214884252269</v>
       </c>
       <c r="C21">
-        <v>0.1305767459955618</v>
+        <v>0.1349411845529715</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1296525094859113</v>
+        <v>0.1413850023030321</v>
       </c>
       <c r="F21">
-        <v>1.885211187958063</v>
+        <v>1.599916921469926</v>
       </c>
       <c r="G21">
-        <v>1.003280006304152</v>
+        <v>0.8249369904302171</v>
       </c>
       <c r="H21">
-        <v>0.001948131423379795</v>
+        <v>0.001429631682222654</v>
       </c>
       <c r="I21">
-        <v>0.006240099897292239</v>
+        <v>0.005166421875014038</v>
       </c>
       <c r="J21">
-        <v>0.6768211774315063</v>
+        <v>0.4422753458903799</v>
       </c>
       <c r="K21">
-        <v>0.7666313960427686</v>
+        <v>0.5575344598215466</v>
       </c>
       <c r="L21">
-        <v>0.08579353012170898</v>
+        <v>0.2107753309831146</v>
       </c>
       <c r="M21">
-        <v>1.535755839401133</v>
+        <v>0.2105798214285848</v>
       </c>
       <c r="N21">
-        <v>0.5626058171241226</v>
+        <v>0.09630498315150504</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.569901785895667</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6484397239703839</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.915163484369202</v>
+        <v>1.895586733847153</v>
       </c>
       <c r="C22">
-        <v>0.138607658392857</v>
+        <v>0.1401379214634204</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1378456465574445</v>
+        <v>0.1536388788540179</v>
       </c>
       <c r="F22">
-        <v>1.977411176289607</v>
+        <v>1.640948562807623</v>
       </c>
       <c r="G22">
-        <v>1.041572242001166</v>
+        <v>0.8856076086959206</v>
       </c>
       <c r="H22">
-        <v>0.001036090207978013</v>
+        <v>0.0007393466635641222</v>
       </c>
       <c r="I22">
-        <v>0.004479066344047489</v>
+        <v>0.003814659415800392</v>
       </c>
       <c r="J22">
-        <v>0.6910223450461217</v>
+        <v>0.3843278234069558</v>
       </c>
       <c r="K22">
-        <v>0.7855984329363181</v>
+        <v>0.5458735644718473</v>
       </c>
       <c r="L22">
-        <v>0.08848152967723877</v>
+        <v>0.2030382912943587</v>
       </c>
       <c r="M22">
-        <v>1.648028129793005</v>
+        <v>0.2113713300236242</v>
       </c>
       <c r="N22">
-        <v>0.600538682179689</v>
+        <v>0.1025877577051908</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.67714876936347</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.699518507146351</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.845860702267998</v>
+        <v>1.823667744409931</v>
       </c>
       <c r="C23">
-        <v>0.1338103565163706</v>
+        <v>0.1375480784593321</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1333725032596185</v>
+        <v>0.1464067479061555</v>
       </c>
       <c r="F23">
-        <v>1.933182054139195</v>
+        <v>1.628229062786914</v>
       </c>
       <c r="G23">
-        <v>1.026049922576391</v>
+        <v>0.8509185598540085</v>
       </c>
       <c r="H23">
-        <v>0.001479980289839755</v>
+        <v>0.001070359898746709</v>
       </c>
       <c r="I23">
-        <v>0.005037574488074625</v>
+        <v>0.004099533275335077</v>
       </c>
       <c r="J23">
-        <v>0.6859498113528275</v>
+        <v>0.4255724456786254</v>
       </c>
       <c r="K23">
-        <v>0.779127824767663</v>
+        <v>0.5576317961379971</v>
       </c>
       <c r="L23">
-        <v>0.08686599214568602</v>
+        <v>0.2089956434006908</v>
       </c>
       <c r="M23">
-        <v>1.587145936949156</v>
+        <v>0.2132279873477714</v>
       </c>
       <c r="N23">
-        <v>0.5788073445441171</v>
+        <v>0.09854573600341254</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.620322862871177</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6696535567072459</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.582469493656816</v>
+        <v>1.556359389002694</v>
       </c>
       <c r="C24">
-        <v>0.1167902925550166</v>
+        <v>0.1247857583051228</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1166628734620119</v>
+        <v>0.122900027132129</v>
       </c>
       <c r="F24">
-        <v>1.759406336003025</v>
+        <v>1.545537799026164</v>
       </c>
       <c r="G24">
-        <v>0.9607057200081641</v>
+        <v>0.7544120924773381</v>
       </c>
       <c r="H24">
-        <v>0.003951972203180776</v>
+        <v>0.002965980256861678</v>
       </c>
       <c r="I24">
-        <v>0.008523363479961077</v>
+        <v>0.006437035121507506</v>
       </c>
       <c r="J24">
-        <v>0.663464136643185</v>
+        <v>0.5467082902191436</v>
       </c>
       <c r="K24">
-        <v>0.7493472573247146</v>
+        <v>0.5822088803040799</v>
       </c>
       <c r="L24">
-        <v>0.08100165223104128</v>
+        <v>0.225616883142095</v>
       </c>
       <c r="M24">
-        <v>1.359035914590208</v>
+        <v>0.2121695977429141</v>
       </c>
       <c r="N24">
-        <v>0.4993656055054601</v>
+        <v>0.08626548370551035</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.399500574465122</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5663785934992802</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.299275490566828</v>
+        <v>1.279348657233641</v>
       </c>
       <c r="C25">
-        <v>0.09899594044113513</v>
+        <v>0.1032176344764864</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09875305745961072</v>
+        <v>0.1038692459005759</v>
       </c>
       <c r="F25">
-        <v>1.575858076795782</v>
+        <v>1.40401499590719</v>
       </c>
       <c r="G25">
-        <v>0.8933164794705419</v>
+        <v>0.7181161672460661</v>
       </c>
       <c r="H25">
-        <v>0.008148279824538196</v>
+        <v>0.006352236049080251</v>
       </c>
       <c r="I25">
-        <v>0.01393217447012951</v>
+        <v>0.01035107267552071</v>
       </c>
       <c r="J25">
-        <v>0.6409683330169713</v>
+        <v>0.545935250652434</v>
       </c>
       <c r="K25">
-        <v>0.7187232638258934</v>
+        <v>0.5765998409759732</v>
       </c>
       <c r="L25">
-        <v>0.07456280991243247</v>
+        <v>0.2325056405229695</v>
       </c>
       <c r="M25">
-        <v>1.114578506080477</v>
+        <v>0.199981996719071</v>
       </c>
       <c r="N25">
-        <v>0.4144741043151328</v>
+        <v>0.07682693536173701</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.148354250687674</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4681367243413064</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
